--- a/data-export/export_202204/sum_tagged_all_ops_detail.xlsx
+++ b/data-export/export_202204/sum_tagged_all_ops_detail.xlsx
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="F12">
-        <v>33957898.33333336</v>
+        <v>39846249.00000007</v>
       </c>
       <c r="G12">
-        <v>28354674.61000001</v>
+        <v>32898686.86666666</v>
       </c>
       <c r="H12">
-        <v>5603223.72333333</v>
+        <v>6947562.133333326</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="F14">
-        <v>308665557.7733329</v>
+        <v>321111808.4399995</v>
       </c>
       <c r="G14">
-        <v>213302015.181667</v>
+        <v>222897160.5083336</v>
       </c>
       <c r="H14">
-        <v>95363542.59166664</v>
+        <v>98214647.93166657</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3918,13 +3918,13 @@
         </is>
       </c>
       <c r="F63">
-        <v>30791623808.53999</v>
+        <v>30941623808.53999</v>
       </c>
       <c r="G63">
-        <v>28792920364.62001</v>
+        <v>28897920364.62</v>
       </c>
       <c r="H63">
-        <v>1020750687.41</v>
+        <v>1065750687.41</v>
       </c>
       <c r="I63">
         <v>977952756.5099999</v>
@@ -4034,16 +4034,16 @@
         </is>
       </c>
       <c r="F65">
-        <v>6518974424.239996</v>
+        <v>6519989374.239996</v>
       </c>
       <c r="G65">
-        <v>5541128259.689999</v>
+        <v>5541990967.189999</v>
       </c>
       <c r="H65">
-        <v>851389502.5099996</v>
+        <v>851490997.5099996</v>
       </c>
       <c r="I65">
-        <v>126456662.04</v>
+        <v>126507409.54</v>
       </c>
       <c r="J65">
         <v>4640493981.729998</v>
@@ -4846,16 +4846,16 @@
         </is>
       </c>
       <c r="F79">
-        <v>8808400426.694998</v>
+        <v>8808800425.694998</v>
       </c>
       <c r="G79">
-        <v>3617303664.754998</v>
+        <v>3617603664.004998</v>
       </c>
       <c r="H79">
         <v>222500</v>
       </c>
       <c r="I79">
-        <v>5190874261.940002</v>
+        <v>5190974261.690002</v>
       </c>
       <c r="J79">
         <v>5819718741.374999</v>
@@ -5426,10 +5426,10 @@
         </is>
       </c>
       <c r="F89">
-        <v>10967610516.72</v>
+        <v>10989247331.39</v>
       </c>
       <c r="G89">
-        <v>4627983702.36</v>
+        <v>4649620517.03</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="F96">
-        <v>8863659550.769999</v>
+        <v>8863852245.569998</v>
       </c>
       <c r="G96">
-        <v>7936259446.950015</v>
+        <v>7936452141.750014</v>
       </c>
       <c r="H96">
         <v>688706081.4300001</v>
@@ -6644,13 +6644,13 @@
         </is>
       </c>
       <c r="F110">
-        <v>6829344373.700008</v>
+        <v>6829564105.620008</v>
       </c>
       <c r="G110">
-        <v>6487877150.270005</v>
+        <v>6488085895.590005</v>
       </c>
       <c r="H110">
-        <v>190113002.4600003</v>
+        <v>190123989.0600003</v>
       </c>
       <c r="I110">
         <v>151354220.9699999</v>
@@ -8500,13 +8500,13 @@
         </is>
       </c>
       <c r="F142">
-        <v>5239298262.627868</v>
+        <v>5250656468.294531</v>
       </c>
       <c r="G142">
-        <v>4354703513.774572</v>
+        <v>4363373820.871236</v>
       </c>
       <c r="H142">
-        <v>839221005.0833392</v>
+        <v>841908903.6533389</v>
       </c>
       <c r="I142">
         <v>45373743.77</v>
@@ -8558,13 +8558,13 @@
         </is>
       </c>
       <c r="F143">
-        <v>740370630.0448179</v>
+        <v>741458675.0448179</v>
       </c>
       <c r="G143">
-        <v>609746783.7519578</v>
+        <v>610671621.9819577</v>
       </c>
       <c r="H143">
-        <v>130623846.2928579</v>
+        <v>130787053.062858</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8848,13 +8848,13 @@
         </is>
       </c>
       <c r="F148">
-        <v>25187511357.65068</v>
+        <v>25187617869.65068</v>
       </c>
       <c r="G148">
-        <v>20599995571.75186</v>
+        <v>20600086106.95186</v>
       </c>
       <c r="H148">
-        <v>4487286701.358833</v>
+        <v>4487302678.158834</v>
       </c>
       <c r="I148">
         <v>100229084.54</v>

--- a/data-export/export_202204/sum_tagged_all_ops_detail.xlsx
+++ b/data-export/export_202204/sum_tagged_all_ops_detail.xlsx
@@ -420,12 +420,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>fin_vyuct_soukr</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>fin_vyuct_verejne</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>fin_vyuct_soukr</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -476,37 +476,37 @@
         </is>
       </c>
       <c r="F2">
-        <v>7677453.895</v>
+        <v>259406882.285</v>
       </c>
       <c r="G2">
-        <v>6525835.81</v>
+        <v>220495849.915</v>
       </c>
       <c r="H2">
-        <v>1057321.835</v>
+        <v>28208643.73999999</v>
       </c>
       <c r="I2">
-        <v>94296.25</v>
+        <v>10702388.63</v>
       </c>
       <c r="J2">
-        <v>6570561.175</v>
+        <v>61126426.96</v>
       </c>
       <c r="K2">
-        <v>5584976.995</v>
+        <v>51957462.895</v>
       </c>
       <c r="L2">
-        <v>946192.6800000001</v>
+        <v>6888987.845</v>
       </c>
       <c r="M2">
-        <v>6531169.675</v>
+        <v>2279976.219999996</v>
       </c>
       <c r="N2">
-        <v>39391.5</v>
+        <v>58846450.74</v>
       </c>
       <c r="O2">
-        <v>985584.1799999997</v>
+        <v>9168964.064999998</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -526,37 +526,37 @@
         </is>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>121861817.5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>69975035.15000001</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>51886782.34999999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>45278676.455</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>26266330.36</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>19012346.095</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>26266330.36</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>19012346.095</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         </is>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>531350245.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>361672056.27</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>169678189.23</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>163737481.645</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>111270564.98</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>52466916.665</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>111270564.98</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>52466916.665</v>
       </c>
       <c r="P4">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -626,37 +626,37 @@
         </is>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>330267028.5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>121336981.7</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>208930046.8</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>139881449.98</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>51400005.505</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>88481444.47499999</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>51400005.505</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>88481444.47499999</v>
       </c>
       <c r="P5">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -676,34 +676,34 @@
         </is>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15851482</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>7133166.9</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8718315.1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2641913.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1188861.075</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1453052.425</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1188861.075</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1453052.425</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -726,37 +726,37 @@
         </is>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>274438664.18</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>233272864.545</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>41165799.63500001</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>56832967.195</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>48308022.10499999</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8524945.09</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.490116119384766e-08</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>56832967.19499999</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8524945.090000011</v>
       </c>
       <c r="P7">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -776,34 +776,34 @@
         </is>
       </c>
       <c r="F8">
-        <v>8439921</v>
+        <v>8034604.5</v>
       </c>
       <c r="G8">
-        <v>7173932.85</v>
+        <v>6829413.824999999</v>
       </c>
       <c r="H8">
-        <v>1265988.15</v>
+        <v>1205190.675</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>74183.5</v>
+        <v>1571141.515</v>
       </c>
       <c r="K8">
-        <v>63055.975</v>
+        <v>1335470.285</v>
       </c>
       <c r="L8">
-        <v>11127.525</v>
+        <v>235671.23</v>
       </c>
       <c r="M8">
-        <v>74183.5</v>
+        <v>-1.164153218269348e-10</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1571141.515</v>
       </c>
       <c r="O8">
-        <v>11127.525</v>
+        <v>235671.2299999999</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -826,34 +826,34 @@
         </is>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8443789.258333333</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>6852134.971666667</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1591654.286666667</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2143888.256666667</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1739765.293333333</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>404122.9633333334</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2143888.256666667</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>404122.9633333333</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -862,48 +862,48 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IX.0.123</t>
+          <t xml:space="preserve"> IX.0.122</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5895000</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5010750</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>884250</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>26738.2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22727.47</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4010.73</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>26738.2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4010.73</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -912,48 +912,48 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> V.0.106</t>
+          <t xml:space="preserve"> IX.0.123</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F11">
-        <v>1249999660</v>
+        <v>941783.3333333333</v>
       </c>
       <c r="G11">
-        <v>1007243476.025</v>
+        <v>764257.1666666666</v>
       </c>
       <c r="H11">
-        <v>242756183.975</v>
+        <v>177526.1666666667</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>107505.5666666667</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>87240.75333333333</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>20264.81333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>107505.5666666667</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>20264.81333333333</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -962,224 +962,216 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VI.0.111</t>
+          <t xml:space="preserve"> V.0.106</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F12">
-        <v>39846249.00000007</v>
+        <v>1249999660</v>
       </c>
       <c r="G12">
-        <v>32898686.86666666</v>
+        <v>1007243476.025</v>
       </c>
       <c r="H12">
-        <v>6947562.133333326</v>
+        <v>242756183.975</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>2875927.666666665</v>
+        <v>1249000685.82</v>
       </c>
       <c r="K12">
-        <v>2418024.569999999</v>
+        <v>1006438507.625</v>
       </c>
       <c r="L12">
-        <v>457903.0966666666</v>
+        <v>242562178.195</v>
       </c>
       <c r="M12">
-        <v>2875927.666666665</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1249000685.82</v>
       </c>
       <c r="O12">
-        <v>457903.0966666666</v>
+        <v>242562178.1949999</v>
       </c>
       <c r="P12">
-        <v>981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VI.0.112</t>
+          <t xml:space="preserve"> VI.0.111</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F13">
-        <v>2357497.5</v>
+        <v>182437015.333334</v>
       </c>
       <c r="G13">
-        <v>1178748.75</v>
+        <v>149813032.2333338</v>
       </c>
       <c r="H13">
-        <v>1178748.75</v>
+        <v>32623983.10000012</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>515112.835</v>
+        <v>42591100.33333345</v>
       </c>
       <c r="K13">
-        <v>257556.415</v>
+        <v>34999320.76000001</v>
       </c>
       <c r="L13">
-        <v>257556.42</v>
+        <v>7591779.573333307</v>
       </c>
       <c r="M13">
-        <v>515112.835</v>
+        <v>3.395446886618933e-11</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>42591100.33333345</v>
       </c>
       <c r="O13">
-        <v>257556.42</v>
+        <v>7591779.573333307</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
+          <t xml:space="preserve"> VI.0.112</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>OP Z</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>5887858.439999999</v>
+      </c>
+      <c r="G14">
+        <v>2943929.22</v>
+      </c>
+      <c r="H14">
+        <v>2943929.22</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3028304.58</v>
+      </c>
+      <c r="K14">
+        <v>1514152.28</v>
+      </c>
+      <c r="L14">
+        <v>1514152.3</v>
+      </c>
+      <c r="M14">
+        <v>2.328306436538696e-10</v>
+      </c>
+      <c r="N14">
+        <v>3028304.58</v>
+      </c>
+      <c r="O14">
+        <v>1514152.3</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
           <t xml:space="preserve"> VII.0.115</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>OP VVV</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="F14">
-        <v>321111808.4399995</v>
-      </c>
-      <c r="G14">
-        <v>222897160.5083336</v>
-      </c>
-      <c r="H14">
-        <v>98214647.93166657</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>6798232.166666679</v>
-      </c>
-      <c r="K14">
-        <v>5417787.060000002</v>
-      </c>
-      <c r="L14">
-        <v>1380445.106666667</v>
-      </c>
-      <c r="M14">
-        <v>6798232.166666679</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1380445.106666667</v>
-      </c>
-      <c r="P14">
+      <c r="F15">
+        <v>583335519.2733346</v>
+      </c>
+      <c r="G15">
+        <v>434555705.790002</v>
+      </c>
+      <c r="H15">
+        <v>148779813.4833321</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>180326554.3466667</v>
+      </c>
+      <c r="K15">
+        <v>134046577.3499998</v>
+      </c>
+      <c r="L15">
+        <v>46279976.99666687</v>
+      </c>
+      <c r="M15">
+        <v>4.850638409455618e-11</v>
+      </c>
+      <c r="N15">
+        <v>180326554.3466667</v>
+      </c>
+      <c r="O15">
+        <v>46279976.99666686</v>
+      </c>
+      <c r="P15">
         <v>1615</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Research and innovation processes in large enterprises</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>I.0.002</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OP PIK</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="F15">
-        <v>9943369767.100014</v>
-      </c>
-      <c r="G15">
-        <v>3460541961.757033</v>
-      </c>
-      <c r="H15">
-        <v>18010469.20029791</v>
-      </c>
-      <c r="I15">
-        <v>6464817336.14268</v>
-      </c>
-      <c r="J15">
-        <v>6980924810.967938</v>
-      </c>
-      <c r="K15">
-        <v>2282699127.842913</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2282699127.842913</v>
-      </c>
-      <c r="N15">
-        <v>4698225683.125026</v>
-      </c>
-      <c r="O15">
-        <v>4698225683.125026</v>
-      </c>
-      <c r="P15">
-        <v>363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Productive investment in large enterprises linked to the low-carbon economy</t>
+          <t>Research and innovation processes in large enterprises</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I.0.003</t>
+          <t>I.0.002</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1192,52 +1184,52 @@
         </is>
       </c>
       <c r="F16">
-        <v>702258284.22</v>
+        <v>10104710721.04547</v>
       </c>
       <c r="G16">
-        <v>265784879.0400001</v>
+        <v>3535362324.919212</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>18010469.20029791</v>
       </c>
       <c r="I16">
-        <v>436473405.1800001</v>
+        <v>6551337926.925961</v>
       </c>
       <c r="J16">
-        <v>505336339.23</v>
+        <v>7689912522.368174</v>
       </c>
       <c r="K16">
-        <v>165806905.15</v>
+        <v>2606963066.779271</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1673610.491038203</v>
       </c>
       <c r="M16">
-        <v>165806905.15</v>
+        <v>5081275845.097868</v>
       </c>
       <c r="N16">
-        <v>339529434.08</v>
+        <v>2608636677.270308</v>
       </c>
       <c r="O16">
-        <v>339529434.08</v>
+        <v>5082949455.588907</v>
       </c>
       <c r="P16">
-        <v>74</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Productive investment linked to the cooperation between large enterprises and SMEs for developing information and communication technology (‘ICT’) products and services, e-commerce and enhancing demand for ICT</t>
+          <t>Productive investment in large enterprises linked to the low-carbon economy</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I.0.004</t>
+          <t>I.0.003</t>
         </is>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1250,48 +1242,48 @@
         </is>
       </c>
       <c r="F17">
-        <v>2644194805.25</v>
+        <v>729646568.3700002</v>
       </c>
       <c r="G17">
-        <v>667367822.89</v>
+        <v>282484193.5400001</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1976826982.36</v>
+        <v>447162374.8299999</v>
       </c>
       <c r="J17">
-        <v>2051130284.52</v>
+        <v>578658647.29</v>
       </c>
       <c r="K17">
-        <v>514622120.7900001</v>
+        <v>207198170.68</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>514622120.7900001</v>
+        <v>371460476.61</v>
       </c>
       <c r="N17">
-        <v>1536508163.73</v>
+        <v>207198170.68</v>
       </c>
       <c r="O17">
-        <v>1536508163.73</v>
+        <v>371460476.61</v>
       </c>
       <c r="P17">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Electricity (storage and transmission)</t>
+          <t>Productive investment linked to the cooperation between large enterprises and SMEs for developing information and communication technology (‘ICT’) products and services, e-commerce and enhancing demand for ICT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>II.1.005</t>
+          <t>I.0.004</t>
         </is>
       </c>
       <c r="C18">
@@ -1308,52 +1300,52 @@
         </is>
       </c>
       <c r="F18">
-        <v>11785423224.1</v>
+        <v>2588056490.25</v>
       </c>
       <c r="G18">
-        <v>4714169289.62</v>
+        <v>653333244.14</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>7071253934.48</v>
+        <v>1934723246.11</v>
       </c>
       <c r="J18">
-        <v>7881548945.610001</v>
+        <v>2168968279.54</v>
       </c>
       <c r="K18">
-        <v>3152619578.2</v>
+        <v>548008457.34</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3152619578.2</v>
+        <v>1620959822.2</v>
       </c>
       <c r="N18">
-        <v>4728929367.409999</v>
+        <v>548008457.34</v>
       </c>
       <c r="O18">
-        <v>4728929367.409999</v>
+        <v>1620959822.2</v>
       </c>
       <c r="P18">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Renewable energy: wind</t>
+          <t>Electricity (storage and transmission)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>II.1.009</t>
+          <t>II.1.005</t>
         </is>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1366,48 +1358,48 @@
         </is>
       </c>
       <c r="F19">
-        <v>201731968.52</v>
+        <v>11785423224.1</v>
       </c>
       <c r="G19">
-        <v>161385574.81</v>
+        <v>4714169289.62</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40346393.71</v>
+        <v>7071253934.48</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9426443762.600002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3770577504.959999</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5655866257.639999</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>3770577504.959999</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>5655866257.639999</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable energy: solar</t>
+          <t>Renewable energy: wind</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>II.1.010</t>
+          <t>II.1.009</t>
         </is>
       </c>
       <c r="C20">
@@ -1424,48 +1416,48 @@
         </is>
       </c>
       <c r="F20">
-        <v>1941374069.439999</v>
+        <v>201731968.52</v>
       </c>
       <c r="G20">
-        <v>1407203417.750001</v>
+        <v>161385574.81</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>534170651.6900004</v>
+        <v>40346393.71</v>
       </c>
       <c r="J20">
-        <v>40221460.48999999</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>29236016.27</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>29236016.27</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10985444.22</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10985444.22</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>240</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable energy: biomass</t>
+          <t>Renewable energy: solar</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>II.1.011</t>
+          <t>II.1.010</t>
         </is>
       </c>
       <c r="C21">
@@ -1482,48 +1474,48 @@
         </is>
       </c>
       <c r="F21">
-        <v>843527323.6</v>
+        <v>2094021227.22</v>
       </c>
       <c r="G21">
-        <v>574648077.75</v>
+        <v>1525660971.19</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>268879245.85</v>
+        <v>568360256.0300003</v>
       </c>
       <c r="J21">
-        <v>615912166.5600001</v>
+        <v>528597782.6800001</v>
       </c>
       <c r="K21">
-        <v>409532011.53</v>
+        <v>381382447.0800001</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>409532011.53</v>
+        <v>147215335.6</v>
       </c>
       <c r="N21">
-        <v>206380155.03</v>
+        <v>381382447.0800001</v>
       </c>
       <c r="O21">
-        <v>206380155.03</v>
+        <v>147215335.6</v>
       </c>
       <c r="P21">
-        <v>47</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Other renewable energy (including hydroelectric, geothermal and marine energy) and renewable energy integration (including storage, power to gas and renewable hydrogen infrastructure)</t>
+          <t>Renewable energy: biomass</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>II.1.012</t>
+          <t>II.1.011</t>
         </is>
       </c>
       <c r="C22">
@@ -1540,48 +1532,48 @@
         </is>
       </c>
       <c r="F22">
-        <v>59211146.47</v>
+        <v>811809695.5999999</v>
       </c>
       <c r="G22">
-        <v>44792200.12</v>
+        <v>549428080.9499999</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14418946.35</v>
+        <v>262381614.65</v>
       </c>
       <c r="J22">
-        <v>16340156.27</v>
+        <v>734683320.63</v>
       </c>
       <c r="K22">
-        <v>13072125.01</v>
+        <v>496482527.9</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13072125.01</v>
+        <v>238200792.73</v>
       </c>
       <c r="N22">
-        <v>3268031.259999999</v>
+        <v>496482527.9</v>
       </c>
       <c r="O22">
-        <v>3268031.259999999</v>
+        <v>238200792.73</v>
       </c>
       <c r="P22">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Energy efficiency renovation of public infrastructure, demonstration projects and supporting measures</t>
+          <t>Other renewable energy (including hydroelectric, geothermal and marine energy) and renewable energy integration (including storage, power to gas and renewable hydrogen infrastructure)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>II.1.013</t>
+          <t>II.1.012</t>
         </is>
       </c>
       <c r="C23">
@@ -1589,46 +1581,46 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F23">
-        <v>80277453.895</v>
+        <v>36478610.07</v>
       </c>
       <c r="G23">
-        <v>68235835.81</v>
+        <v>29182888.04</v>
       </c>
       <c r="H23">
-        <v>11947321.835</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>94296.25</v>
+        <v>7295722.029999999</v>
       </c>
       <c r="J23">
-        <v>6570561.175</v>
+        <v>19617104.71</v>
       </c>
       <c r="K23">
-        <v>5584976.995</v>
+        <v>15693683.75</v>
       </c>
       <c r="L23">
-        <v>946192.6800000001</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6531169.675</v>
+        <v>3923420.959999999</v>
       </c>
       <c r="N23">
-        <v>39391.5</v>
+        <v>15693683.75</v>
       </c>
       <c r="O23">
-        <v>985584.1799999997</v>
+        <v>3923420.959999999</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -1647,46 +1639,46 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F24">
-        <v>1728183143.33</v>
+        <v>317455134.705</v>
       </c>
       <c r="G24">
-        <v>1016179835.08</v>
+        <v>269836864.455</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>34643468.98999999</v>
       </c>
       <c r="I24">
-        <v>712003308.2500001</v>
+        <v>12974801.26</v>
       </c>
       <c r="J24">
-        <v>72756292.64999999</v>
+        <v>75381524.64</v>
       </c>
       <c r="K24">
-        <v>40161480.12</v>
+        <v>64074295.915</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8314497.615</v>
       </c>
       <c r="M24">
-        <v>40161480.12</v>
+        <v>2992731.109999997</v>
       </c>
       <c r="N24">
-        <v>32594812.53</v>
+        <v>72388793.53000002</v>
       </c>
       <c r="O24">
-        <v>32594812.53</v>
+        <v>11307228.725</v>
       </c>
       <c r="P24">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -1705,46 +1697,46 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F25">
-        <v>1793407125.88</v>
+        <v>1100237365.39</v>
       </c>
       <c r="G25">
-        <v>896703562.8999999</v>
+        <v>658162101.7599999</v>
       </c>
       <c r="H25">
-        <v>660463502.37</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>236240060.61</v>
+        <v>442075263.6300001</v>
       </c>
       <c r="J25">
-        <v>1016515110.92</v>
+        <v>298283898.21</v>
       </c>
       <c r="K25">
-        <v>508257555.3199999</v>
+        <v>164793040.68</v>
       </c>
       <c r="L25">
-        <v>367469247.28</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>875726802.6000001</v>
+        <v>133490857.53</v>
       </c>
       <c r="N25">
-        <v>140788308.32</v>
+        <v>164793040.68</v>
       </c>
       <c r="O25">
-        <v>508257555.6</v>
+        <v>133490857.53</v>
       </c>
       <c r="P25">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1763,57 +1755,57 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F26">
-        <v>20174113753.00001</v>
+        <v>2003393167.33</v>
       </c>
       <c r="G26">
-        <v>8407294032.580005</v>
+        <v>1001696583.62</v>
       </c>
       <c r="H26">
-        <v>11610417499.95003</v>
+        <v>733958616.87</v>
       </c>
       <c r="I26">
-        <v>156402220.47</v>
+        <v>267737966.8399999</v>
       </c>
       <c r="J26">
-        <v>13404421544.00998</v>
+        <v>1533539257.89</v>
       </c>
       <c r="K26">
-        <v>5536286077.379999</v>
+        <v>766769628.76</v>
       </c>
       <c r="L26">
-        <v>7809814132.040002</v>
+        <v>556012414.6000001</v>
       </c>
       <c r="M26">
-        <v>13346100209.41998</v>
+        <v>210757214.5300001</v>
       </c>
       <c r="N26">
-        <v>58321334.58999998</v>
+        <v>1322782043.36</v>
       </c>
       <c r="O26">
-        <v>7868135466.630002</v>
+        <v>766769629.1300001</v>
       </c>
       <c r="P26">
-        <v>2680</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Energy efficiency renovation of existing housing stock, demonstration projects and supporting measures</t>
+          <t>Energy efficiency renovation of public infrastructure, demonstration projects and supporting measures</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>II.1.014</t>
+          <t>II.1.013</t>
         </is>
       </c>
       <c r="C27">
@@ -1821,57 +1813,57 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F27">
-        <v>23125908350.98996</v>
+        <v>23198285361.95999</v>
       </c>
       <c r="G27">
-        <v>7660573042.189996</v>
+        <v>9906882087.880003</v>
       </c>
       <c r="H27">
-        <v>3068426393.82</v>
+        <v>13052684790.40999</v>
       </c>
       <c r="I27">
-        <v>12396908914.97999</v>
+        <v>238718483.67</v>
       </c>
       <c r="J27">
-        <v>15411266609.20999</v>
+        <v>16290983976.60997</v>
       </c>
       <c r="K27">
-        <v>5077752069.049998</v>
+        <v>6784045643.849998</v>
       </c>
       <c r="L27">
-        <v>1797310819.7</v>
+        <v>9440934528.330009</v>
       </c>
       <c r="M27">
-        <v>6875062888.750004</v>
+        <v>66003804.43000001</v>
       </c>
       <c r="N27">
-        <v>8536203720.459981</v>
+        <v>16224980172.17997</v>
       </c>
       <c r="O27">
-        <v>10333514540.15999</v>
+        <v>9506938332.760008</v>
       </c>
       <c r="P27">
-        <v>3196</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intelligent Energy Distribution Systems at medium and low voltage levels (including smart grids and ICT systems)</t>
+          <t>Energy efficiency renovation of existing housing stock, demonstration projects and supporting measures</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>II.1.015</t>
+          <t>II.1.014</t>
         </is>
       </c>
       <c r="C28">
@@ -1879,57 +1871,57 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F28">
-        <v>569466787.36</v>
+        <v>23291626294.5</v>
       </c>
       <c r="G28">
-        <v>227786714.91</v>
+        <v>7705380403.709999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3037948820.380001</v>
       </c>
       <c r="I28">
-        <v>341680072.45</v>
+        <v>12548297070.41003</v>
       </c>
       <c r="J28">
-        <v>48425187.38</v>
+        <v>18740727821.64998</v>
       </c>
       <c r="K28">
-        <v>19370074.94</v>
+        <v>6183717429.140002</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2228962555.180001</v>
       </c>
       <c r="M28">
-        <v>19370074.94</v>
+        <v>10328047837.33</v>
       </c>
       <c r="N28">
-        <v>29055112.44000001</v>
+        <v>8412679984.319998</v>
       </c>
       <c r="O28">
-        <v>29055112.44000001</v>
+        <v>12557010392.51001</v>
       </c>
       <c r="P28">
-        <v>21</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>High efficiency co-generation and district heating</t>
+          <t>Intelligent Energy Distribution Systems at medium and low voltage levels (including smart grids and ICT systems)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>II.1.016</t>
+          <t>II.1.015</t>
         </is>
       </c>
       <c r="C29">
@@ -1946,106 +1938,106 @@
         </is>
       </c>
       <c r="F29">
-        <v>7426259893.210004</v>
+        <v>521382676.02</v>
       </c>
       <c r="G29">
-        <v>2845708877.909999</v>
+        <v>208553070.38</v>
       </c>
       <c r="H29">
-        <v>29969062.5</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>4550581952.800002</v>
+        <v>312829605.64</v>
       </c>
       <c r="J29">
-        <v>4511797346.520001</v>
+        <v>201640970.17</v>
       </c>
       <c r="K29">
-        <v>1694232051.419999</v>
+        <v>80656388.02999999</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1694232051.419999</v>
+        <v>120984582.14</v>
       </c>
       <c r="N29">
-        <v>2817565295.100001</v>
+        <v>80656388.02999999</v>
       </c>
       <c r="O29">
-        <v>2817565295.100001</v>
+        <v>120984582.14</v>
       </c>
       <c r="P29">
-        <v>171</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Household waste management (including minimisation, sorting, recycling measures)</t>
+          <t>High efficiency co-generation and district heating</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>II.2.017</t>
+          <t>II.1.016</t>
         </is>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F30">
-        <v>8105702627.488183</v>
+        <v>7755704177.680001</v>
       </c>
       <c r="G30">
-        <v>6277585237.760989</v>
+        <v>2991202572.439999</v>
       </c>
       <c r="H30">
-        <v>868993488.5771768</v>
+        <v>29969062.5</v>
       </c>
       <c r="I30">
-        <v>959123901.1500003</v>
+        <v>4734532542.740001</v>
       </c>
       <c r="J30">
-        <v>5898663779.619893</v>
+        <v>5602907000.52</v>
       </c>
       <c r="K30">
-        <v>4773127247.052216</v>
+        <v>2143832571.159999</v>
       </c>
       <c r="L30">
-        <v>642453488.4076748</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>5415580735.45989</v>
+        <v>3459074429.36</v>
       </c>
       <c r="N30">
-        <v>483083044.1600002</v>
+        <v>2143832571.159999</v>
       </c>
       <c r="O30">
-        <v>1125536532.567675</v>
+        <v>3459074429.36</v>
       </c>
       <c r="P30">
-        <v>2637</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Household waste management (including mechanical biological treatment, thermal treatment, incineration and landfill measures)</t>
+          <t>Household waste management (including minimisation, sorting, recycling measures)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>II.2.018</t>
+          <t>II.2.017</t>
         </is>
       </c>
       <c r="C31">
@@ -2062,48 +2054,48 @@
         </is>
       </c>
       <c r="F31">
-        <v>2950755188.039999</v>
+        <v>7747914981.758181</v>
       </c>
       <c r="G31">
-        <v>1996572476.05</v>
+        <v>6105575421.820982</v>
       </c>
       <c r="H31">
-        <v>333862907.7299997</v>
+        <v>803956041.9471772</v>
       </c>
       <c r="I31">
-        <v>620319804.2599999</v>
+        <v>838383517.9899999</v>
       </c>
       <c r="J31">
-        <v>1506470337.58</v>
+        <v>6966814431.6099</v>
       </c>
       <c r="K31">
-        <v>1043574000.55</v>
+        <v>5662891847.172206</v>
       </c>
       <c r="L31">
-        <v>212228517.19</v>
+        <v>752697584.4876748</v>
       </c>
       <c r="M31">
-        <v>1255802517.74</v>
+        <v>551224999.9500002</v>
       </c>
       <c r="N31">
-        <v>250667819.8400001</v>
+        <v>6415589431.659901</v>
       </c>
       <c r="O31">
-        <v>462896337.0300002</v>
+        <v>1303922584.437674</v>
       </c>
       <c r="P31">
-        <v>187</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Commercial, industrial or hazardous waste management</t>
+          <t>Household waste management (including mechanical biological treatment, thermal treatment, incineration and landfill measures)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>II.2.019</t>
+          <t>II.2.018</t>
         </is>
       </c>
       <c r="C32">
@@ -2120,48 +2112,48 @@
         </is>
       </c>
       <c r="F32">
-        <v>1040417726.811823</v>
+        <v>2797936392.44</v>
       </c>
       <c r="G32">
-        <v>607614991.359</v>
+        <v>1958278885.59</v>
       </c>
       <c r="H32">
-        <v>164259657.5528235</v>
+        <v>219337702.59</v>
       </c>
       <c r="I32">
-        <v>268543077.9000001</v>
+        <v>620319804.26</v>
       </c>
       <c r="J32">
-        <v>470646228.1201019</v>
+        <v>2263650360.55</v>
       </c>
       <c r="K32">
-        <v>316610667.8277762</v>
+        <v>1558305928.86</v>
       </c>
       <c r="L32">
-        <v>5045298.19232566</v>
+        <v>216088214.67</v>
       </c>
       <c r="M32">
-        <v>321655966.0201018</v>
+        <v>489256217.02</v>
       </c>
       <c r="N32">
-        <v>148990262.1</v>
+        <v>1774394143.53</v>
       </c>
       <c r="O32">
-        <v>154035560.2923257</v>
+        <v>705344431.6900001</v>
       </c>
       <c r="P32">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Provision of water for human consumption (extraction, treatment, storage and distribution infrastructure)</t>
+          <t>Commercial, industrial or hazardous waste management</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>II.2.020</t>
+          <t>II.2.019</t>
         </is>
       </c>
       <c r="C33">
@@ -2178,52 +2170,52 @@
         </is>
       </c>
       <c r="F33">
-        <v>4173323441.080001</v>
+        <v>987432181.2518235</v>
       </c>
       <c r="G33">
-        <v>3547324924.310001</v>
+        <v>582172436.4290001</v>
       </c>
       <c r="H33">
-        <v>624607267.17</v>
+        <v>138530881.3328235</v>
       </c>
       <c r="I33">
-        <v>1391249.6</v>
+        <v>266728863.4900001</v>
       </c>
       <c r="J33">
-        <v>4029295868.610001</v>
+        <v>637039628.2301017</v>
       </c>
       <c r="K33">
-        <v>3424473506.869998</v>
+        <v>440342420.057776</v>
       </c>
       <c r="L33">
-        <v>603432799.6300001</v>
+        <v>13883396.05232566</v>
       </c>
       <c r="M33">
-        <v>4027906306.5</v>
+        <v>182813812.12</v>
       </c>
       <c r="N33">
-        <v>1389562.110000086</v>
+        <v>454225816.1101018</v>
       </c>
       <c r="O33">
-        <v>604822361.7400002</v>
+        <v>196697208.1723257</v>
       </c>
       <c r="P33">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Water management and drinking water conservation (including river basin management, water supply, specific climate change adaptation measures, district and consumer metering, charging systems and leak reduction)</t>
+          <t>Provision of water for human consumption (extraction, treatment, storage and distribution infrastructure)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>II.2.021</t>
+          <t>II.2.020</t>
         </is>
       </c>
       <c r="C34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2236,52 +2228,52 @@
         </is>
       </c>
       <c r="F34">
-        <v>141303634.72</v>
+        <v>4172522259.450001</v>
       </c>
       <c r="G34">
-        <v>119066076.08</v>
+        <v>3546643919.930001</v>
       </c>
       <c r="H34">
-        <v>20926015.39</v>
+        <v>624487089.9200001</v>
       </c>
       <c r="I34">
-        <v>1311543.25</v>
+        <v>1391249.6</v>
       </c>
       <c r="J34">
-        <v>119263203.07</v>
+        <v>4122336453.719998</v>
       </c>
       <c r="K34">
-        <v>100382697.69</v>
+        <v>3503416405.38</v>
       </c>
       <c r="L34">
-        <v>17801792.73</v>
+        <v>617530486.2299997</v>
       </c>
       <c r="M34">
-        <v>118184490.42</v>
+        <v>1389562.110000113</v>
       </c>
       <c r="N34">
-        <v>1078712.649999998</v>
+        <v>4120946891.609998</v>
       </c>
       <c r="O34">
-        <v>18880505.38</v>
+        <v>618920048.3399998</v>
       </c>
       <c r="P34">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Waste water treatment</t>
+          <t>Water management and drinking water conservation (including river basin management, water supply, specific climate change adaptation measures, district and consumer metering, charging systems and leak reduction)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>II.2.022</t>
+          <t>II.2.021</t>
         </is>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2294,106 +2286,106 @@
         </is>
       </c>
       <c r="F35">
-        <v>13532303350.76001</v>
+        <v>133261590.68</v>
       </c>
       <c r="G35">
-        <v>11502457846.37002</v>
+        <v>112230338.65</v>
       </c>
       <c r="H35">
-        <v>2013418556.98</v>
+        <v>19719708.78</v>
       </c>
       <c r="I35">
-        <v>16426947.41</v>
+        <v>1311543.25</v>
       </c>
       <c r="J35">
-        <v>12822846719.78</v>
+        <v>132295393.66</v>
       </c>
       <c r="K35">
-        <v>10897444662.25</v>
+        <v>111460059.66</v>
       </c>
       <c r="L35">
-        <v>1911387624.130001</v>
+        <v>19524698.27</v>
       </c>
       <c r="M35">
-        <v>12808832286.38</v>
+        <v>1310635.729999997</v>
       </c>
       <c r="N35">
-        <v>14014433.40000001</v>
+        <v>130984757.93</v>
       </c>
       <c r="O35">
-        <v>1925402057.530002</v>
+        <v>20835334</v>
       </c>
       <c r="P35">
-        <v>417</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Railways (TEN-T Core)</t>
+          <t>Waste water treatment</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>II.3.024</t>
+          <t>II.2.022</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F36">
-        <v>13370881828.16</v>
+        <v>13509425450.66999</v>
       </c>
       <c r="G36">
-        <v>11365249553.895</v>
+        <v>11483011631.30001</v>
       </c>
       <c r="H36">
-        <v>2005632274.265</v>
+        <v>2010857104.040001</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>15556715.33</v>
       </c>
       <c r="J36">
-        <v>10667862902.083</v>
+        <v>13184963358.63999</v>
       </c>
       <c r="K36">
-        <v>9067683466.143</v>
+        <v>11204193414.55</v>
       </c>
       <c r="L36">
-        <v>1600179435.94</v>
+        <v>1965370076.98</v>
       </c>
       <c r="M36">
-        <v>10667862902.083</v>
+        <v>15399867.11000008</v>
       </c>
       <c r="N36">
-        <v>2.011656761169434e-07</v>
+        <v>13169563491.52999</v>
       </c>
       <c r="O36">
-        <v>1600179435.94</v>
+        <v>1980769944.090001</v>
       </c>
       <c r="P36">
-        <v>27</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Railways (TEN-T comprehensive)</t>
+          <t>Railways (TEN-T Core)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>II.3.025</t>
+          <t>II.3.024</t>
         </is>
       </c>
       <c r="C37">
@@ -2410,48 +2402,48 @@
         </is>
       </c>
       <c r="F37">
-        <v>25205552941.11368</v>
+        <v>13370881828.16</v>
       </c>
       <c r="G37">
-        <v>21424719999.885</v>
+        <v>11365249553.895</v>
       </c>
       <c r="H37">
-        <v>3780832941.228676</v>
+        <v>2005632274.265</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>18652821033.34761</v>
+        <v>11410811931.137</v>
       </c>
       <c r="K37">
-        <v>15854897877.32865</v>
+        <v>9699190140.817001</v>
       </c>
       <c r="L37">
-        <v>2797923156.018956</v>
+        <v>1711621790.319999</v>
       </c>
       <c r="M37">
-        <v>18652821033.34761</v>
+        <v>2.011656761169434e-07</v>
       </c>
       <c r="N37">
-        <v>-7.450580596923828e-08</v>
+        <v>11410811931.137</v>
       </c>
       <c r="O37">
-        <v>2797923156.018956</v>
+        <v>1711621790.32</v>
       </c>
       <c r="P37">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Other Railways</t>
+          <t>Railways (TEN-T comprehensive)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>II.3.026</t>
+          <t>II.3.025</t>
         </is>
       </c>
       <c r="C38">
@@ -2468,48 +2460,48 @@
         </is>
       </c>
       <c r="F38">
-        <v>20849525309.44632</v>
+        <v>25157858859.92368</v>
       </c>
       <c r="G38">
-        <v>17722096512.94</v>
+        <v>21384180030.885</v>
       </c>
       <c r="H38">
-        <v>3127428796.506324</v>
+        <v>3773678829.038677</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>19190372166.7794</v>
+        <v>20274986660.30278</v>
       </c>
       <c r="K38">
-        <v>16311816340.62835</v>
+        <v>17233738660.1358</v>
       </c>
       <c r="L38">
-        <v>2878555826.151044</v>
+        <v>3041248000.166969</v>
       </c>
       <c r="M38">
-        <v>19190372166.7794</v>
+        <v>2.235174179077148e-07</v>
       </c>
       <c r="N38">
-        <v>-1.639127731323242e-07</v>
+        <v>20274986660.30277</v>
       </c>
       <c r="O38">
-        <v>2878555826.151043</v>
+        <v>3041248000.166968</v>
       </c>
       <c r="P38">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mobile rail assets</t>
+          <t>Other Railways</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>II.3.027</t>
+          <t>II.3.026</t>
         </is>
       </c>
       <c r="C39">
@@ -2526,52 +2518,52 @@
         </is>
       </c>
       <c r="F39">
-        <v>4629087971.960001</v>
+        <v>20891004972.44632</v>
       </c>
       <c r="G39">
-        <v>3588631275.25</v>
+        <v>17757354226.49</v>
       </c>
       <c r="H39">
-        <v>76143739.81</v>
+        <v>3133650745.956324</v>
       </c>
       <c r="I39">
-        <v>964312956.9</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1142486154.13</v>
+        <v>19424312029.54023</v>
       </c>
       <c r="K39">
-        <v>877546428.3000001</v>
+        <v>16510665223.94719</v>
       </c>
       <c r="L39">
-        <v>6441674.4</v>
+        <v>2913646805.59303</v>
       </c>
       <c r="M39">
-        <v>883988102.7</v>
+        <v>1.341104507446289e-07</v>
       </c>
       <c r="N39">
-        <v>258498051.43</v>
+        <v>19424312029.54023</v>
       </c>
       <c r="O39">
-        <v>264939725.83</v>
+        <v>2913646805.59303</v>
       </c>
       <c r="P39">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TEN-T motorways and roads — core network (new build)</t>
+          <t>Mobile rail assets</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>II.3.028</t>
+          <t>II.3.027</t>
         </is>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2584,48 +2576,48 @@
         </is>
       </c>
       <c r="F40">
-        <v>3195446249.1</v>
+        <v>4678696188.45</v>
       </c>
       <c r="G40">
-        <v>2716129311.73</v>
+        <v>3669889860.59</v>
       </c>
       <c r="H40">
-        <v>479316937.37</v>
+        <v>76143739.81</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>932662588.05</v>
       </c>
       <c r="J40">
-        <v>2808811525.5</v>
+        <v>2979857140.63</v>
       </c>
       <c r="K40">
-        <v>2387489796.56</v>
+        <v>2275021985.9</v>
       </c>
       <c r="L40">
-        <v>421321728.9400001</v>
+        <v>14414589.19</v>
       </c>
       <c r="M40">
-        <v>2808811525.5</v>
+        <v>690420565.54</v>
       </c>
       <c r="N40">
-        <v>2.384185791015625e-07</v>
+        <v>2289436575.09</v>
       </c>
       <c r="O40">
-        <v>421321728.9400002</v>
+        <v>704835154.73</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TEN-T motorways and roads — comprehensive network (new build)</t>
+          <t>TEN-T motorways and roads — core network (new build)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>II.3.029</t>
+          <t>II.3.028</t>
         </is>
       </c>
       <c r="C41">
@@ -2642,48 +2634,48 @@
         </is>
       </c>
       <c r="F41">
-        <v>22243156197.81</v>
+        <v>3195446249.1</v>
       </c>
       <c r="G41">
-        <v>18906682768.13</v>
+        <v>2716129311.73</v>
       </c>
       <c r="H41">
-        <v>3336473429.68</v>
+        <v>479316937.37</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>15464170118.92</v>
+        <v>2914929798.35</v>
       </c>
       <c r="K41">
-        <v>13144544600.34</v>
+        <v>2477690328.48</v>
       </c>
       <c r="L41">
-        <v>2319625518.58</v>
+        <v>437239469.87</v>
       </c>
       <c r="M41">
-        <v>15464170118.92</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-2.384185791015625e-07</v>
+        <v>2914929798.35</v>
       </c>
       <c r="O41">
-        <v>2319625518.579999</v>
+        <v>437239469.8699999</v>
       </c>
       <c r="P41">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Secondary road links to TEN-T road network and nodes (new build)</t>
+          <t>TEN-T motorways and roads — comprehensive network (new build)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>II.3.030</t>
+          <t>II.3.029</t>
         </is>
       </c>
       <c r="C42">
@@ -2691,57 +2683,57 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F42">
-        <v>3081739457.469999</v>
+        <v>21386298109.41</v>
       </c>
       <c r="G42">
-        <v>2566039640.069999</v>
+        <v>18178353392.99</v>
       </c>
       <c r="H42">
-        <v>515699817.4</v>
+        <v>3207944716.42</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1575741603.87</v>
+        <v>18597462971.96</v>
       </c>
       <c r="K42">
-        <v>1296938802.28</v>
+        <v>15807843525.35</v>
       </c>
       <c r="L42">
-        <v>278802801.59</v>
+        <v>2789619446.61</v>
       </c>
       <c r="M42">
-        <v>1575741603.87</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="N42">
-        <v>2.60770320892334e-08</v>
+        <v>18597462971.96</v>
       </c>
       <c r="O42">
-        <v>278802801.59</v>
+        <v>2789619446.61</v>
       </c>
       <c r="P42">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Other national and regional roads (new build)</t>
+          <t>Secondary road links to TEN-T road network and nodes (new build)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>II.3.031</t>
+          <t>II.3.030</t>
         </is>
       </c>
       <c r="C43">
@@ -2758,37 +2750,37 @@
         </is>
       </c>
       <c r="F43">
-        <v>4976858420.91</v>
+        <v>3377101549.27</v>
       </c>
       <c r="G43">
-        <v>4179890785.385</v>
+        <v>2817097418.099999</v>
       </c>
       <c r="H43">
-        <v>796967635.525</v>
+        <v>560004131.1700001</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>2974859998.935</v>
+        <v>2542225941.92</v>
       </c>
       <c r="K43">
-        <v>2517780172.335</v>
+        <v>2114653083.14</v>
       </c>
       <c r="L43">
-        <v>457079826.6</v>
+        <v>427572858.78</v>
       </c>
       <c r="M43">
-        <v>2974859998.935</v>
+        <v>-9.499490261077881e-08</v>
       </c>
       <c r="N43">
-        <v>-1.490116119384766e-08</v>
+        <v>2542225941.92</v>
       </c>
       <c r="O43">
-        <v>457079826.6</v>
+        <v>427572858.78</v>
       </c>
       <c r="P43">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -2807,57 +2799,57 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F44">
-        <v>28764473338.5</v>
+        <v>4977545381.72</v>
       </c>
       <c r="G44">
-        <v>24449802337.72001</v>
+        <v>4180474702.07</v>
       </c>
       <c r="H44">
-        <v>4314671000.780001</v>
+        <v>797070679.65</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>16153550566.36</v>
+        <v>3107445745.565001</v>
       </c>
       <c r="K44">
-        <v>13730517980</v>
+        <v>2615163782.49</v>
       </c>
       <c r="L44">
-        <v>2423032586.359999</v>
+        <v>492281963.0749999</v>
       </c>
       <c r="M44">
-        <v>16153550566.36</v>
+        <v>-1.676380634307861e-08</v>
       </c>
       <c r="N44">
-        <v>-3.091990947723389e-07</v>
+        <v>3107445745.565001</v>
       </c>
       <c r="O44">
-        <v>2423032586.359999</v>
+        <v>492281963.0749998</v>
       </c>
       <c r="P44">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TEN-T reconstructed or improved road</t>
+          <t>Other national and regional roads (new build)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>II.3.033</t>
+          <t>II.3.031</t>
         </is>
       </c>
       <c r="C45">
@@ -2874,48 +2866,48 @@
         </is>
       </c>
       <c r="F45">
-        <v>16208200121</v>
+        <v>32073862022.56</v>
       </c>
       <c r="G45">
-        <v>13776970102.85</v>
+        <v>27262782719.17001</v>
       </c>
       <c r="H45">
-        <v>2431230018.15</v>
+        <v>4811079303.390001</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>13223301418.98</v>
+        <v>22349487710.69</v>
       </c>
       <c r="K45">
-        <v>11239806205.62</v>
+        <v>18997064552.4</v>
       </c>
       <c r="L45">
-        <v>1983495213.36</v>
+        <v>3352423158.289999</v>
       </c>
       <c r="M45">
-        <v>13223301418.98</v>
+        <v>-7.450580596923828e-08</v>
       </c>
       <c r="N45">
-        <v>2.980232238769531e-07</v>
+        <v>22349487710.69</v>
       </c>
       <c r="O45">
-        <v>1983495213.36</v>
+        <v>3352423158.29</v>
       </c>
       <c r="P45">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Other reconstructed or improved road (motorway, national, regional or local)</t>
+          <t>TEN-T reconstructed or improved road</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>II.3.034</t>
+          <t>II.3.033</t>
         </is>
       </c>
       <c r="C46">
@@ -2923,46 +2915,46 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F46">
-        <v>30040261003.46</v>
+        <v>16208200121</v>
       </c>
       <c r="G46">
-        <v>24766771349.34501</v>
+        <v>13776970102.85</v>
       </c>
       <c r="H46">
-        <v>5273489654.114996</v>
+        <v>2431230018.15</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>18903823309.985</v>
+        <v>13475193505.94</v>
       </c>
       <c r="K46">
-        <v>15773559935.60501</v>
+        <v>11453914479.52</v>
       </c>
       <c r="L46">
-        <v>3130263374.380001</v>
+        <v>2021279026.42</v>
       </c>
       <c r="M46">
-        <v>18903823309.985</v>
+        <v>5.364418029785156e-07</v>
       </c>
       <c r="N46">
-        <v>1.508742570877075e-07</v>
+        <v>13475193505.94</v>
       </c>
       <c r="O46">
-        <v>3130263374.380002</v>
+        <v>2021279026.42</v>
       </c>
       <c r="P46">
-        <v>440</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2981,61 +2973,61 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F47">
-        <v>700459605</v>
+        <v>30228219484.95999</v>
       </c>
       <c r="G47">
-        <v>595390664.25</v>
+        <v>24929180033.82001</v>
       </c>
       <c r="H47">
-        <v>105068940.75</v>
+        <v>5299039451.139995</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>523308372.2</v>
+        <v>22160507736.32501</v>
       </c>
       <c r="K47">
-        <v>444812116.34</v>
+        <v>18383796880.68001</v>
       </c>
       <c r="L47">
-        <v>78496255.86</v>
+        <v>3776710855.645001</v>
       </c>
       <c r="M47">
-        <v>523308372.2</v>
+        <v>1.944135874509811e-07</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>22160507736.32501</v>
       </c>
       <c r="O47">
-        <v>78496255.86</v>
+        <v>3776710855.645001</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Multimodal transport (TEN-T)</t>
+          <t>Other reconstructed or improved road (motorway, national, regional or local)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>II.3.035</t>
+          <t>II.3.034</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3048,48 +3040,48 @@
         </is>
       </c>
       <c r="F48">
-        <v>12500000</v>
+        <v>700459605</v>
       </c>
       <c r="G48">
-        <v>6125000</v>
+        <v>595390664.25</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>105068940.75</v>
       </c>
       <c r="I48">
-        <v>6375000</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>11935125</v>
+        <v>616127479.92</v>
       </c>
       <c r="K48">
-        <v>5848211.25</v>
+        <v>523708357.9</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>92419122.02</v>
       </c>
       <c r="M48">
-        <v>5848211.25</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>6086913.75</v>
+        <v>616127479.92</v>
       </c>
       <c r="O48">
-        <v>6086913.75</v>
+        <v>92419122.02000001</v>
       </c>
       <c r="P48">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Multimodal transport</t>
+          <t>Multimodal transport (TEN-T)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>II.3.036</t>
+          <t>II.3.035</t>
         </is>
       </c>
       <c r="C49">
@@ -3106,48 +3098,48 @@
         </is>
       </c>
       <c r="F49">
-        <v>1452708980.57</v>
+        <v>12500000</v>
       </c>
       <c r="G49">
-        <v>693032583.6299999</v>
+        <v>6125000</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>759676396.9400001</v>
+        <v>6375000</v>
       </c>
       <c r="J49">
-        <v>264663034.18</v>
+        <v>11935125</v>
       </c>
       <c r="K49">
-        <v>114440333.9</v>
+        <v>5848211.25</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>114440333.9</v>
+        <v>6086913.75</v>
       </c>
       <c r="N49">
-        <v>150222700.28</v>
+        <v>5848211.25</v>
       </c>
       <c r="O49">
-        <v>150222700.28</v>
+        <v>6086913.75</v>
       </c>
       <c r="P49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Clean urban transport infrastructure and promotion (including equipment and rolling stock)</t>
+          <t>Multimodal transport</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>II.4.043</t>
+          <t>II.3.036</t>
         </is>
       </c>
       <c r="C50">
@@ -3155,46 +3147,46 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F50">
-        <v>7513637913.510003</v>
+        <v>1344049095.62</v>
       </c>
       <c r="G50">
-        <v>6386592225.940001</v>
+        <v>639789240.0099999</v>
       </c>
       <c r="H50">
-        <v>341169748.9699998</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>785875938.5999999</v>
+        <v>704259855.61</v>
       </c>
       <c r="J50">
-        <v>5692340330.209998</v>
+        <v>780553493.12</v>
       </c>
       <c r="K50">
-        <v>4838489279.719999</v>
+        <v>364080029.24</v>
       </c>
       <c r="L50">
-        <v>195682420.6099998</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>5034171700.329999</v>
+        <v>416473463.8799999</v>
       </c>
       <c r="N50">
-        <v>658168629.88</v>
+        <v>364080029.24</v>
       </c>
       <c r="O50">
-        <v>853851050.49</v>
+        <v>416473463.8799999</v>
       </c>
       <c r="P50">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -3213,46 +3205,46 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F51">
-        <v>15366996432.32</v>
+        <v>7483560274.210007</v>
       </c>
       <c r="G51">
-        <v>13061946967.41</v>
+        <v>6361026232.529998</v>
       </c>
       <c r="H51">
-        <v>1494380282.15</v>
+        <v>341169748.9699998</v>
       </c>
       <c r="I51">
-        <v>810669182.76</v>
+        <v>781364292.71</v>
       </c>
       <c r="J51">
-        <v>5972134576.1</v>
+        <v>6204387399.499995</v>
       </c>
       <c r="K51">
-        <v>5076314389.270001</v>
+        <v>5273729288.579999</v>
       </c>
       <c r="L51">
-        <v>625381012.8099999</v>
+        <v>200449073.4899999</v>
       </c>
       <c r="M51">
-        <v>5701695402.080001</v>
+        <v>730209037.4300002</v>
       </c>
       <c r="N51">
-        <v>270439174.0200001</v>
+        <v>5474178362.069996</v>
       </c>
       <c r="O51">
-        <v>895820186.83</v>
+        <v>930658110.9200003</v>
       </c>
       <c r="P51">
-        <v>41</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -3271,57 +3263,57 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F52">
-        <v>1192400385</v>
+        <v>15386249186.14</v>
       </c>
       <c r="G52">
-        <v>596200192.5</v>
+        <v>13078311808.14</v>
       </c>
       <c r="H52">
-        <v>453049654</v>
+        <v>1497005689.749999</v>
       </c>
       <c r="I52">
-        <v>143150538.5</v>
+        <v>810931688.25</v>
       </c>
       <c r="J52">
-        <v>419704315.26</v>
+        <v>8813656107.049999</v>
       </c>
       <c r="K52">
-        <v>209852157.61</v>
+        <v>7491607690.300001</v>
       </c>
       <c r="L52">
-        <v>167881726.1</v>
+        <v>752743835.25</v>
       </c>
       <c r="M52">
-        <v>377733883.71</v>
+        <v>569304581.5</v>
       </c>
       <c r="N52">
-        <v>41970431.55</v>
+        <v>8244351525.550001</v>
       </c>
       <c r="O52">
-        <v>209852157.65</v>
+        <v>1322048416.75</v>
       </c>
       <c r="P52">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intelligent transport systems (including the introduction of demand management, tolling systems, IT monitoring, control and information systems)</t>
+          <t>Clean urban transport infrastructure and promotion (including equipment and rolling stock)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>II.4.044</t>
+          <t>II.4.043</t>
         </is>
       </c>
       <c r="C53">
@@ -3329,46 +3321,46 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F53">
-        <v>10125060975.09001</v>
+        <v>1192400385</v>
       </c>
       <c r="G53">
-        <v>8606301827.939999</v>
+        <v>596200192.5</v>
       </c>
       <c r="H53">
-        <v>798473242.4999993</v>
+        <v>453049654</v>
       </c>
       <c r="I53">
-        <v>720285904.6500001</v>
+        <v>143150538.5</v>
       </c>
       <c r="J53">
-        <v>8452429318.240001</v>
+        <v>885834100.4000001</v>
       </c>
       <c r="K53">
-        <v>7184564918.899991</v>
+        <v>442917050.17</v>
       </c>
       <c r="L53">
-        <v>614576484.9999999</v>
+        <v>345744220.15</v>
       </c>
       <c r="M53">
-        <v>7799141403.9</v>
+        <v>97172830.07999995</v>
       </c>
       <c r="N53">
-        <v>653287914.34</v>
+        <v>788661270.3200001</v>
       </c>
       <c r="O53">
-        <v>1267864399.34</v>
+        <v>442917050.23</v>
       </c>
       <c r="P53">
-        <v>366</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -3387,115 +3379,115 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OP D</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F54">
-        <v>2067061476.819999</v>
+        <v>10672326926.32</v>
       </c>
       <c r="G54">
-        <v>1757002255.21</v>
+        <v>9071477886.389997</v>
       </c>
       <c r="H54">
-        <v>298060403.62</v>
+        <v>863090417.2099992</v>
       </c>
       <c r="I54">
-        <v>11998817.99</v>
+        <v>737758622.7199999</v>
       </c>
       <c r="J54">
-        <v>838559008.2200001</v>
+        <v>9645903173.919991</v>
       </c>
       <c r="K54">
-        <v>712775156.85</v>
+        <v>8199017695.959992</v>
       </c>
       <c r="L54">
-        <v>125783851.37</v>
+        <v>745375038.1400005</v>
       </c>
       <c r="M54">
-        <v>838559008.2200001</v>
+        <v>701510439.8199999</v>
       </c>
       <c r="N54">
-        <v>-2.421438694000244e-08</v>
+        <v>8944392734.1</v>
       </c>
       <c r="O54">
-        <v>125783851.37</v>
+        <v>1446885477.96</v>
       </c>
       <c r="P54">
-        <v>30</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ICT: High-speed broadband network (access/local loop; &gt;/= 30 Mbps)</t>
+          <t>Intelligent transport systems (including the introduction of demand management, tolling systems, IT monitoring, control and information systems)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>II.5.046</t>
+          <t>II.4.044</t>
         </is>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP D</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>04</t>
         </is>
       </c>
       <c r="F55">
-        <v>5119742802.260001</v>
+        <v>1947383289.01</v>
       </c>
       <c r="G55">
-        <v>4187848518.809999</v>
+        <v>1655275795.58</v>
       </c>
       <c r="H55">
-        <v>522062125.96</v>
+        <v>280108675.44</v>
       </c>
       <c r="I55">
-        <v>409832157.49</v>
+        <v>11998817.99</v>
       </c>
       <c r="J55">
-        <v>99729296.07000001</v>
+        <v>1245380317.41</v>
       </c>
       <c r="K55">
-        <v>74796972.03999999</v>
+        <v>1058573269.57</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>186807047.84</v>
       </c>
       <c r="M55">
-        <v>74796972.03999999</v>
+        <v>1.955777406692505e-08</v>
       </c>
       <c r="N55">
-        <v>24932324.03000001</v>
+        <v>1245380317.41</v>
       </c>
       <c r="O55">
-        <v>24932324.03000001</v>
+        <v>186807047.84</v>
       </c>
       <c r="P55">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ICT: Other types of ICT infrastructure/large-scale computer resources/equipment (including e-infrastructure, data centres and sensors; also where embedded in other infrastructure such as research facilities, environmental and social infrastructure)</t>
+          <t>ICT: High-speed broadband network (access/local loop; &gt;/= 30 Mbps)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>II.5.048</t>
+          <t>II.5.046</t>
         </is>
       </c>
       <c r="C56">
@@ -3512,48 +3504,48 @@
         </is>
       </c>
       <c r="F56">
-        <v>5173391629.199999</v>
+        <v>5694724344.940002</v>
       </c>
       <c r="G56">
-        <v>2224062866.59</v>
+        <v>4676859376.469998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>608724176.91</v>
       </c>
       <c r="I56">
-        <v>2949328762.61</v>
+        <v>409140791.5599999</v>
       </c>
       <c r="J56">
-        <v>1858263339.25</v>
+        <v>823026448.61</v>
       </c>
       <c r="K56">
-        <v>748272672.1200002</v>
+        <v>663960885.5699999</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>70036573.94</v>
       </c>
       <c r="M56">
-        <v>748272672.1200002</v>
+        <v>89028989.10000002</v>
       </c>
       <c r="N56">
-        <v>1109990667.13</v>
+        <v>733997459.51</v>
       </c>
       <c r="O56">
-        <v>1109990667.13</v>
+        <v>159065563.04</v>
       </c>
       <c r="P56">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Education infrastructure for tertiary education</t>
+          <t>ICT: Other types of ICT infrastructure/large-scale computer resources/equipment (including e-infrastructure, data centres and sensors; also where embedded in other infrastructure such as research facilities, environmental and social infrastructure)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>III.0.049</t>
+          <t>II.5.048</t>
         </is>
       </c>
       <c r="C57">
@@ -3561,57 +3553,57 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F57">
-        <v>15444472949.32999</v>
+        <v>3379481215.469999</v>
       </c>
       <c r="G57">
-        <v>12580015883.14</v>
+        <v>1427465932.31</v>
       </c>
       <c r="H57">
-        <v>2404518598.829999</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>459938467.36</v>
+        <v>1952015283.16</v>
       </c>
       <c r="J57">
-        <v>12056384175.95</v>
+        <v>2237999110.39</v>
       </c>
       <c r="K57">
-        <v>9843895444.929996</v>
+        <v>913477203.4800001</v>
       </c>
       <c r="L57">
-        <v>1838370282.98</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>11682265727.91001</v>
+        <v>1324521906.91</v>
       </c>
       <c r="N57">
-        <v>374118448.0400001</v>
+        <v>913477203.4800001</v>
       </c>
       <c r="O57">
-        <v>2212488731.019999</v>
+        <v>1324521906.91</v>
       </c>
       <c r="P57">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Education infrastructure for vocational education and training and adult learning</t>
+          <t>Education infrastructure for tertiary education</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>III.0.050</t>
+          <t>III.0.049</t>
         </is>
       </c>
       <c r="C58">
@@ -3619,57 +3611,57 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F58">
-        <v>456501729.9300001</v>
+        <v>15444472949.33001</v>
       </c>
       <c r="G58">
-        <v>228230529.7</v>
+        <v>12580015883.14</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2404518598.83</v>
       </c>
       <c r="I58">
-        <v>228271200.23</v>
+        <v>459938467.36</v>
       </c>
       <c r="J58">
-        <v>371486994.7300001</v>
+        <v>14168181721.47001</v>
       </c>
       <c r="K58">
-        <v>185724715.21</v>
+        <v>11566951431.66</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>2179988294.750001</v>
       </c>
       <c r="M58">
-        <v>185724715.21</v>
+        <v>421241995.0599999</v>
       </c>
       <c r="N58">
-        <v>185762279.52</v>
+        <v>13746939726.41</v>
       </c>
       <c r="O58">
-        <v>185762279.52</v>
+        <v>2601230289.81</v>
       </c>
       <c r="P58">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Education infrastructure for school education (primary and general secondary education)</t>
+          <t>Education infrastructure for vocational education and training and adult learning</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>III.0.051</t>
+          <t>III.0.050</t>
         </is>
       </c>
       <c r="C59">
@@ -3677,46 +3669,46 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F59">
-        <v>21834392489.45998</v>
+        <v>438739973.1500001</v>
       </c>
       <c r="G59">
-        <v>18822017371.09999</v>
+        <v>219349651.31</v>
       </c>
       <c r="H59">
-        <v>2840202920.409994</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>172172197.9500001</v>
+        <v>219390321.8400001</v>
       </c>
       <c r="J59">
-        <v>17911919232.85002</v>
+        <v>401534603.7400001</v>
       </c>
       <c r="K59">
-        <v>15433548011.17002</v>
+        <v>200748519.7</v>
       </c>
       <c r="L59">
-        <v>2333154736.459993</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>17766702747.63002</v>
+        <v>200786084.04</v>
       </c>
       <c r="N59">
-        <v>145216485.22</v>
+        <v>200748519.7</v>
       </c>
       <c r="O59">
-        <v>2478371221.679992</v>
+        <v>200786084.04</v>
       </c>
       <c r="P59">
-        <v>2860</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
@@ -3735,57 +3727,57 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F60">
-        <v>941251866.9946002</v>
+        <v>21960404068.54</v>
       </c>
       <c r="G60">
-        <v>470625933.35</v>
+        <v>18936842083.59001</v>
       </c>
       <c r="H60">
-        <v>338187115.44076</v>
+        <v>2849015694.029993</v>
       </c>
       <c r="I60">
-        <v>132438818.20384</v>
+        <v>174546290.9200001</v>
       </c>
       <c r="J60">
-        <v>817685840.1318164</v>
+        <v>20106241550.21003</v>
       </c>
       <c r="K60">
-        <v>408842919.3097697</v>
+        <v>17343190365.89999</v>
       </c>
       <c r="L60">
-        <v>291702275.1989366</v>
+        <v>2604722190.299998</v>
       </c>
       <c r="M60">
-        <v>700545194.5087065</v>
+        <v>158328994.0100001</v>
       </c>
       <c r="N60">
-        <v>117140645.6231097</v>
+        <v>19947912556.20003</v>
       </c>
       <c r="O60">
-        <v>408842920.8220467</v>
+        <v>2763051184.309997</v>
       </c>
       <c r="P60">
-        <v>211</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Infrastructure for early childhood education and care</t>
+          <t>Education infrastructure for school education (primary and general secondary education)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>III.0.052</t>
+          <t>III.0.051</t>
         </is>
       </c>
       <c r="C61">
@@ -3793,46 +3785,46 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F61">
-        <v>5980216952.88</v>
+        <v>1125905268.4346</v>
       </c>
       <c r="G61">
-        <v>5083184409.040001</v>
+        <v>562952633.9599999</v>
       </c>
       <c r="H61">
-        <v>839915675.8900002</v>
+        <v>412048475.9407603</v>
       </c>
       <c r="I61">
-        <v>57116867.95</v>
+        <v>150904158.53384</v>
       </c>
       <c r="J61">
-        <v>4955065078.259998</v>
+        <v>868462130.8510818</v>
       </c>
       <c r="K61">
-        <v>4211805314.040001</v>
+        <v>434231064.5917025</v>
       </c>
       <c r="L61">
-        <v>691300407.6999999</v>
+        <v>312012791.4266431</v>
       </c>
       <c r="M61">
-        <v>4903105721.74</v>
+        <v>122218274.8327364</v>
       </c>
       <c r="N61">
-        <v>51959356.52</v>
+        <v>746243856.0183452</v>
       </c>
       <c r="O61">
-        <v>743259764.22</v>
+        <v>434231066.2593793</v>
       </c>
       <c r="P61">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62">
@@ -3851,57 +3843,57 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F62">
-        <v>511544622.1154</v>
+        <v>5967358677.159997</v>
       </c>
       <c r="G62">
-        <v>255772311.03</v>
+        <v>5072254874.68</v>
       </c>
       <c r="H62">
-        <v>183969101.28924</v>
+        <v>837986934.5299994</v>
       </c>
       <c r="I62">
-        <v>71803209.79616</v>
+        <v>57116867.95</v>
       </c>
       <c r="J62">
-        <v>375778018.5981838</v>
+        <v>5529803679.260001</v>
       </c>
       <c r="K62">
-        <v>187889009.1302305</v>
+        <v>4700333124.580004</v>
       </c>
       <c r="L62">
-        <v>133298777.0810632</v>
+        <v>775369500.3699995</v>
       </c>
       <c r="M62">
-        <v>321187786.2112938</v>
+        <v>54101054.31000001</v>
       </c>
       <c r="N62">
-        <v>54590232.38689022</v>
+        <v>5475702624.950003</v>
       </c>
       <c r="O62">
-        <v>187889009.4679534</v>
+        <v>829470554.6799999</v>
       </c>
       <c r="P62">
-        <v>68</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Health infrastructure</t>
+          <t>Infrastructure for early childhood education and care</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>III.0.053</t>
+          <t>III.0.052</t>
         </is>
       </c>
       <c r="C63">
@@ -3909,57 +3901,57 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F63">
-        <v>30941623808.53999</v>
+        <v>516038934.7954</v>
       </c>
       <c r="G63">
-        <v>28897920364.62</v>
+        <v>258019467.37</v>
       </c>
       <c r="H63">
-        <v>1065750687.41</v>
+        <v>186916082.70924</v>
       </c>
       <c r="I63">
-        <v>977952756.5099999</v>
+        <v>71103384.71615998</v>
       </c>
       <c r="J63">
-        <v>9263051765.260002</v>
+        <v>437463948.1789179</v>
       </c>
       <c r="K63">
-        <v>7849128380.700002</v>
+        <v>218731973.8982974</v>
       </c>
       <c r="L63">
-        <v>638748098.61</v>
+        <v>157973148.8833569</v>
       </c>
       <c r="M63">
-        <v>8487876479.310003</v>
+        <v>60758825.39726362</v>
       </c>
       <c r="N63">
-        <v>775175285.9500002</v>
+        <v>376705122.7816542</v>
       </c>
       <c r="O63">
-        <v>1413923384.559999</v>
+        <v>218731974.2806204</v>
       </c>
       <c r="P63">
-        <v>353</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Housing infrastructure</t>
+          <t>Health infrastructure</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>III.0.054</t>
+          <t>III.0.053</t>
         </is>
       </c>
       <c r="C64">
@@ -3976,48 +3968,48 @@
         </is>
       </c>
       <c r="F64">
-        <v>3085073638.12</v>
+        <v>32232513426.55</v>
       </c>
       <c r="G64">
-        <v>2622312591.75</v>
+        <v>29802467728.1</v>
       </c>
       <c r="H64">
-        <v>425497910.73</v>
+        <v>1211423426.38</v>
       </c>
       <c r="I64">
-        <v>37263135.64000002</v>
+        <v>1218622272.07</v>
       </c>
       <c r="J64">
-        <v>2341950461.709999</v>
+        <v>14503202623.73</v>
       </c>
       <c r="K64">
-        <v>1990657890.93</v>
+        <v>12630266002</v>
       </c>
       <c r="L64">
-        <v>323283725.1599999</v>
+        <v>902754942.7799996</v>
       </c>
       <c r="M64">
-        <v>2313941616.09</v>
+        <v>970181678.9500008</v>
       </c>
       <c r="N64">
-        <v>28008845.62000002</v>
+        <v>13533020944.78</v>
       </c>
       <c r="O64">
-        <v>351292570.7800002</v>
+        <v>1872936621.73</v>
       </c>
       <c r="P64">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Other social infrastructure contributing to regional and local development</t>
+          <t>Housing infrastructure</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>III.0.055</t>
+          <t>III.0.054</t>
         </is>
       </c>
       <c r="C65">
@@ -4034,37 +4026,37 @@
         </is>
       </c>
       <c r="F65">
-        <v>6519989374.239996</v>
+        <v>2980987963.550001</v>
       </c>
       <c r="G65">
-        <v>5541990967.189999</v>
+        <v>2533839768.389999</v>
       </c>
       <c r="H65">
-        <v>851490997.5099996</v>
+        <v>411946334.8200001</v>
       </c>
       <c r="I65">
-        <v>126507409.54</v>
+        <v>35201860.34</v>
       </c>
       <c r="J65">
-        <v>4640493981.729998</v>
+        <v>2807988377.35</v>
       </c>
       <c r="K65">
-        <v>3944419881.580001</v>
+        <v>2386790118.97</v>
       </c>
       <c r="L65">
-        <v>603107199.7400008</v>
+        <v>388090878.8899999</v>
       </c>
       <c r="M65">
-        <v>4547527081.320002</v>
+        <v>33107379.48999999</v>
       </c>
       <c r="N65">
-        <v>92966900.41000016</v>
+        <v>2774880997.86</v>
       </c>
       <c r="O65">
-        <v>696074100.1500008</v>
+        <v>421198258.3799998</v>
       </c>
       <c r="P65">
-        <v>498</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66">
@@ -4083,57 +4075,57 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F66">
-        <v>600956047.09</v>
+        <v>7313043460.769998</v>
       </c>
       <c r="G66">
-        <v>300478023.4900001</v>
+        <v>6216086940.670003</v>
       </c>
       <c r="H66">
-        <v>263243409.17</v>
+        <v>950790974.2900002</v>
       </c>
       <c r="I66">
-        <v>37234614.43000001</v>
+        <v>146165545.81</v>
       </c>
       <c r="J66">
-        <v>403303804.28</v>
+        <v>5795752242.27</v>
       </c>
       <c r="K66">
-        <v>201651901.87</v>
+        <v>4922847657.919998</v>
       </c>
       <c r="L66">
-        <v>169992207.49</v>
+        <v>759226325.1099991</v>
       </c>
       <c r="M66">
-        <v>371644109.36</v>
+        <v>113678259.2400002</v>
       </c>
       <c r="N66">
-        <v>31659694.92</v>
+        <v>5682073983.030001</v>
       </c>
       <c r="O66">
-        <v>201651902.41</v>
+        <v>872904584.35</v>
       </c>
       <c r="P66">
-        <v>64</v>
+        <v>713</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Investment in infrastructure, capacities and equipment in SMEs directly linked to research and innovation activities</t>
+          <t>Other social infrastructure contributing to regional and local development</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>IV.1.056</t>
+          <t>III.0.055</t>
         </is>
       </c>
       <c r="C67">
@@ -4141,57 +4133,57 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F67">
-        <v>15365387873.34501</v>
+        <v>711655081.8099999</v>
       </c>
       <c r="G67">
-        <v>6783701523.155005</v>
+        <v>355827540.83</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>314696376.2399999</v>
       </c>
       <c r="I67">
-        <v>8581686350.190003</v>
+        <v>41131164.74000001</v>
       </c>
       <c r="J67">
-        <v>9971348630.279999</v>
+        <v>490729342.82</v>
       </c>
       <c r="K67">
-        <v>4376966754.525</v>
+        <v>245364671.09</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>212079277.62</v>
       </c>
       <c r="M67">
-        <v>4376966754.525</v>
+        <v>33285394.10999998</v>
       </c>
       <c r="N67">
-        <v>5594381875.755002</v>
+        <v>457443948.7100001</v>
       </c>
       <c r="O67">
-        <v>5594381875.755002</v>
+        <v>245364671.73</v>
       </c>
       <c r="P67">
-        <v>1192</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Investment in infrastructure, capacities and equipment in large companies directly linked to research and innovation activities</t>
+          <t>Investment in infrastructure, capacities and equipment in SMEs directly linked to research and innovation activities</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IV.1.057</t>
+          <t>IV.1.056</t>
         </is>
       </c>
       <c r="C68">
@@ -4208,48 +4200,48 @@
         </is>
       </c>
       <c r="F68">
-        <v>7910383912.075002</v>
+        <v>15090926811.59001</v>
       </c>
       <c r="G68">
-        <v>2786013852.755001</v>
+        <v>6637886229.570004</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>5124370059.32</v>
+        <v>8453040582.02</v>
       </c>
       <c r="J68">
-        <v>6848763863.925</v>
+        <v>11781708449.24</v>
       </c>
       <c r="K68">
-        <v>2430026150.67</v>
+        <v>5175428501.330001</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2430026150.67</v>
+        <v>6606279947.910003</v>
       </c>
       <c r="N68">
-        <v>4418737713.255001</v>
+        <v>5175428501.330001</v>
       </c>
       <c r="O68">
-        <v>4418737713.255001</v>
+        <v>6606279947.910003</v>
       </c>
       <c r="P68">
-        <v>240</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Research and innovation infrastructure (public)</t>
+          <t>Investment in infrastructure, capacities and equipment in large companies directly linked to research and innovation activities</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>IV.1.058</t>
+          <t>IV.1.057</t>
         </is>
       </c>
       <c r="C69">
@@ -4266,37 +4258,37 @@
         </is>
       </c>
       <c r="F69">
-        <v>1416510238.9</v>
+        <v>7910383912.075</v>
       </c>
       <c r="G69">
-        <v>885888776.04</v>
+        <v>2786013852.754999</v>
       </c>
       <c r="H69">
-        <v>104792143.26</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>425829319.6</v>
+        <v>5124370059.32</v>
       </c>
       <c r="J69">
-        <v>654319551.04</v>
+        <v>6872420220.925001</v>
       </c>
       <c r="K69">
-        <v>396920821.39</v>
+        <v>2435940239.92</v>
       </c>
       <c r="L69">
-        <v>47954391.46</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>444875212.8499999</v>
+        <v>4436479981.005</v>
       </c>
       <c r="N69">
-        <v>209444338.19</v>
+        <v>2435940239.92</v>
       </c>
       <c r="O69">
-        <v>257398729.65</v>
+        <v>4436479981.005</v>
       </c>
       <c r="P69">
-        <v>23</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70">
@@ -4315,57 +4307,57 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F70">
-        <v>17807680620.24495</v>
+        <v>1416510238.9</v>
       </c>
       <c r="G70">
-        <v>14225268485.037</v>
+        <v>885888776.0400001</v>
       </c>
       <c r="H70">
-        <v>2908920451.341411</v>
+        <v>104792143.26</v>
       </c>
       <c r="I70">
-        <v>673491683.8665291</v>
+        <v>425829319.6</v>
       </c>
       <c r="J70">
-        <v>13849678310.62506</v>
+        <v>920434917.2400001</v>
       </c>
       <c r="K70">
-        <v>11108765085.1956</v>
+        <v>546442660.22</v>
       </c>
       <c r="L70">
-        <v>2179171720.096142</v>
+        <v>74325101.69</v>
       </c>
       <c r="M70">
-        <v>13287936805.29175</v>
+        <v>299667155.33</v>
       </c>
       <c r="N70">
-        <v>561741505.3333192</v>
+        <v>620767761.91</v>
       </c>
       <c r="O70">
-        <v>2740913225.429461</v>
+        <v>373992257.02</v>
       </c>
       <c r="P70">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Research and innovation infrastructure (private, including science parks)</t>
+          <t>Research and innovation infrastructure (public)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>IV.1.059</t>
+          <t>IV.1.058</t>
         </is>
       </c>
       <c r="C71">
@@ -4373,57 +4365,57 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F71">
-        <v>3762340630.869999</v>
+        <v>17807680620.23494</v>
       </c>
       <c r="G71">
-        <v>1947160095.73</v>
+        <v>14225268485.03701</v>
       </c>
       <c r="H71">
-        <v>48346515.32</v>
+        <v>2908920451.331411</v>
       </c>
       <c r="I71">
-        <v>1766834019.82</v>
+        <v>673491683.8665293</v>
       </c>
       <c r="J71">
-        <v>1511845134.25</v>
+        <v>15731979980.64229</v>
       </c>
       <c r="K71">
-        <v>756133500.5099998</v>
+        <v>12584468672.94118</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>2540580826.884783</v>
       </c>
       <c r="M71">
-        <v>756133500.5099998</v>
+        <v>606930480.8163332</v>
       </c>
       <c r="N71">
-        <v>755711633.7400001</v>
+        <v>15125049499.82595</v>
       </c>
       <c r="O71">
-        <v>755711633.7400001</v>
+        <v>3147511307.701116</v>
       </c>
       <c r="P71">
-        <v>50</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Research and innovation activities in public research centres and centres of competence including networking</t>
+          <t>Research and innovation infrastructure (private, including science parks)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>IV.1.060</t>
+          <t>IV.1.059</t>
         </is>
       </c>
       <c r="C72">
@@ -4440,37 +4432,37 @@
         </is>
       </c>
       <c r="F72">
-        <v>2404760248.055418</v>
+        <v>3604797923.62</v>
       </c>
       <c r="G72">
-        <v>1564522106.928701</v>
+        <v>1865052977.09</v>
       </c>
       <c r="H72">
-        <v>7204585.982838651</v>
+        <v>48346515.32</v>
       </c>
       <c r="I72">
-        <v>833033555.1438822</v>
+        <v>1691398431.21</v>
       </c>
       <c r="J72">
-        <v>737817196.5905713</v>
+        <v>2080806968.97</v>
       </c>
       <c r="K72">
-        <v>471994293.4727823</v>
+        <v>1060338862.61</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>15475327.68</v>
       </c>
       <c r="M72">
-        <v>471994293.4727823</v>
+        <v>1004992778.68</v>
       </c>
       <c r="N72">
-        <v>265822903.1177898</v>
+        <v>1075814190.29</v>
       </c>
       <c r="O72">
-        <v>265822903.1177898</v>
+        <v>1020468106.36</v>
       </c>
       <c r="P72">
-        <v>428</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73">
@@ -4489,57 +4481,57 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F73">
-        <v>6472470307.437984</v>
+        <v>2924194522.531098</v>
       </c>
       <c r="G73">
-        <v>5099281113.898002</v>
+        <v>1920166641.762848</v>
       </c>
       <c r="H73">
-        <v>1263265155.114297</v>
+        <v>6473583.549702086</v>
       </c>
       <c r="I73">
-        <v>109924038.4256858</v>
+        <v>997554297.21855</v>
       </c>
       <c r="J73">
-        <v>4685376187.691262</v>
+        <v>1488546793.052795</v>
       </c>
       <c r="K73">
-        <v>3665299737.713073</v>
+        <v>969150948.1854341</v>
       </c>
       <c r="L73">
-        <v>938111000.0227897</v>
+        <v>601553.308961797</v>
       </c>
       <c r="M73">
-        <v>4603410737.735864</v>
+        <v>518794291.5583993</v>
       </c>
       <c r="N73">
-        <v>81965449.95539972</v>
+        <v>969752501.4943959</v>
       </c>
       <c r="O73">
-        <v>1020076449.97819</v>
+        <v>519395844.8673611</v>
       </c>
       <c r="P73">
-        <v>64</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Research and innovation activities in private research centres including networking</t>
+          <t>Research and innovation activities in public research centres and centres of competence including networking</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IV.1.061</t>
+          <t>IV.1.060</t>
         </is>
       </c>
       <c r="C74">
@@ -4547,46 +4539,46 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F74">
-        <v>19894275695.11648</v>
+        <v>6427709617.497981</v>
       </c>
       <c r="G74">
-        <v>11628374157.90927</v>
+        <v>5067344361.618001</v>
       </c>
       <c r="H74">
-        <v>1914008.296863435</v>
+        <v>1250441217.454297</v>
       </c>
       <c r="I74">
-        <v>8263987528.91036</v>
+        <v>109924038.4256858</v>
       </c>
       <c r="J74">
-        <v>9321558174.236063</v>
+        <v>5583827572.081929</v>
       </c>
       <c r="K74">
-        <v>5441090038.960401</v>
+        <v>4391073512.493985</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>1097058935.866573</v>
       </c>
       <c r="M74">
-        <v>5441090038.960401</v>
+        <v>95695123.72136992</v>
       </c>
       <c r="N74">
-        <v>3880468135.275662</v>
+        <v>5488132448.36056</v>
       </c>
       <c r="O74">
-        <v>3880468135.275662</v>
+        <v>1192754059.587943</v>
       </c>
       <c r="P74">
-        <v>1408</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75">
@@ -4605,57 +4597,57 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F75">
-        <v>12500784682.23708</v>
+        <v>20511311755.69537</v>
       </c>
       <c r="G75">
-        <v>9640036664.445</v>
+        <v>11948944168.02294</v>
       </c>
       <c r="H75">
-        <v>2721346014.594291</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>139402003.1977848</v>
+        <v>8562367587.672407</v>
       </c>
       <c r="J75">
-        <v>7414763919.273668</v>
+        <v>12867790900.71454</v>
       </c>
       <c r="K75">
-        <v>5715146034.77132</v>
+        <v>7530282218.067607</v>
       </c>
       <c r="L75">
-        <v>1595754270.331068</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>7310900305.102387</v>
+        <v>5337508682.646955</v>
       </c>
       <c r="N75">
-        <v>103863614.1712801</v>
+        <v>7530282218.067607</v>
       </c>
       <c r="O75">
-        <v>1699617884.502348</v>
+        <v>5337508682.646955</v>
       </c>
       <c r="P75">
-        <v>45</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Technology transfer and university-enterprise cooperation primarily benefiting SMEs</t>
+          <t>Research and innovation activities in private research centres including networking</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>IV.1.062</t>
+          <t>IV.1.061</t>
         </is>
       </c>
       <c r="C76">
@@ -4663,46 +4655,46 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F76">
-        <v>309957324.3</v>
+        <v>12477700143.82707</v>
       </c>
       <c r="G76">
-        <v>216970127</v>
+        <v>9620414806.794998</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2717883333.834291</v>
       </c>
       <c r="I76">
-        <v>92987197.30000001</v>
+        <v>139402003.1977848</v>
       </c>
       <c r="J76">
-        <v>165220158.82</v>
+        <v>9381135040.035784</v>
       </c>
       <c r="K76">
-        <v>115654110.54</v>
+        <v>7236141919.684846</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>2029020203.278644</v>
       </c>
       <c r="M76">
-        <v>115654110.54</v>
+        <v>115972917.0722964</v>
       </c>
       <c r="N76">
-        <v>49566048.27999998</v>
+        <v>9265162122.963488</v>
       </c>
       <c r="O76">
-        <v>49566048.27999998</v>
+        <v>2144993120.350941</v>
       </c>
       <c r="P76">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
@@ -4721,57 +4713,57 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F77">
-        <v>1496321968.17</v>
+        <v>309638660.3</v>
       </c>
       <c r="G77">
-        <v>748160984.04</v>
+        <v>216747062.2000001</v>
       </c>
       <c r="H77">
-        <v>598528787.1700001</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>149632196.96</v>
+        <v>92891598.10000001</v>
       </c>
       <c r="J77">
-        <v>848001373.0099999</v>
+        <v>222736428.55</v>
       </c>
       <c r="K77">
-        <v>424000685.9800001</v>
+        <v>155915499.22</v>
       </c>
       <c r="L77">
-        <v>339200548.79</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>763201234.7700001</v>
+        <v>66820929.32999996</v>
       </c>
       <c r="N77">
-        <v>84800138.24000001</v>
+        <v>155915499.22</v>
       </c>
       <c r="O77">
-        <v>424000687.03</v>
+        <v>66820929.32999996</v>
       </c>
       <c r="P77">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cluster support and business networks primarily benefiting SMEs</t>
+          <t>Technology transfer and university-enterprise cooperation primarily benefiting SMEs</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>IV.1.063</t>
+          <t>IV.1.062</t>
         </is>
       </c>
       <c r="C78">
@@ -4779,57 +4771,57 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F78">
-        <v>3802566349.75</v>
+        <v>1437237682.57</v>
       </c>
       <c r="G78">
-        <v>2125712715.599999</v>
+        <v>718618841.2400001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>574895072.9299998</v>
       </c>
       <c r="I78">
-        <v>1676853634.150001</v>
+        <v>143723768.4</v>
       </c>
       <c r="J78">
-        <v>1860579418.163999</v>
+        <v>973985797.8199999</v>
       </c>
       <c r="K78">
-        <v>1028782181.278</v>
+        <v>486992898.33</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>389594318.6899999</v>
       </c>
       <c r="M78">
-        <v>1028782181.278</v>
+        <v>97398580.8</v>
       </c>
       <c r="N78">
-        <v>831797236.8859997</v>
+        <v>876587217.02</v>
       </c>
       <c r="O78">
-        <v>831797236.8859997</v>
+        <v>486992899.4899999</v>
       </c>
       <c r="P78">
-        <v>269</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Research and innovation processes in SMEs (including voucher schemes, process, design, service and social innovation)</t>
+          <t>Cluster support and business networks primarily benefiting SMEs</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>IV.1.064</t>
+          <t>IV.1.063</t>
         </is>
       </c>
       <c r="C79">
@@ -4846,37 +4838,37 @@
         </is>
       </c>
       <c r="F79">
-        <v>8808800425.694998</v>
+        <v>3957236686.91</v>
       </c>
       <c r="G79">
-        <v>3617603664.004998</v>
+        <v>2215481023.95</v>
       </c>
       <c r="H79">
-        <v>222500</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>5190974261.690002</v>
+        <v>1741755662.96</v>
       </c>
       <c r="J79">
-        <v>5819718741.374999</v>
+        <v>2662011617.204</v>
       </c>
       <c r="K79">
-        <v>2401878438.865</v>
+        <v>1480363055.168</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>2401878438.865</v>
+        <v>1181648562.036</v>
       </c>
       <c r="N79">
-        <v>3417840302.51</v>
+        <v>1480363055.168</v>
       </c>
       <c r="O79">
-        <v>3417840302.51</v>
+        <v>1181648562.036</v>
       </c>
       <c r="P79">
-        <v>2344</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80">
@@ -4895,119 +4887,119 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F80">
-        <v>150666195</v>
+        <v>8585481607.149995</v>
       </c>
       <c r="G80">
-        <v>75333097.5</v>
+        <v>3559559017.059998</v>
       </c>
       <c r="H80">
-        <v>60266478</v>
+        <v>222500</v>
       </c>
       <c r="I80">
-        <v>15066619.5</v>
+        <v>5025700090.089998</v>
       </c>
       <c r="J80">
-        <v>60173924.54000001</v>
+        <v>6815717480.81</v>
       </c>
       <c r="K80">
-        <v>30086962.26</v>
+        <v>2836222917.609999</v>
       </c>
       <c r="L80">
-        <v>24069569.79</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>54156532.05</v>
+        <v>3979494563.200002</v>
       </c>
       <c r="N80">
-        <v>6017392.490000002</v>
+        <v>2836222917.609999</v>
       </c>
       <c r="O80">
-        <v>30086962.28</v>
+        <v>3979494563.200002</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Research and innovation infrastructure, processes, technology transfer and cooperation in enterprises focusing on the low carbon economy and on resilience to climate change</t>
+          <t>Research and innovation processes in SMEs (including voucher schemes, process, design, service and social innovation)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IV.1.065</t>
+          <t>IV.1.064</t>
         </is>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F81">
-        <v>9434160923.143082</v>
+        <v>145689500</v>
       </c>
       <c r="G81">
-        <v>3138639076.39</v>
+        <v>72844750</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>58275800</v>
       </c>
       <c r="I81">
-        <v>6295521846.753079</v>
+        <v>14568950</v>
       </c>
       <c r="J81">
-        <v>1287675340.841423</v>
+        <v>62533158.34</v>
       </c>
       <c r="K81">
-        <v>517208000.3259017</v>
+        <v>31266579.16</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>25013263.31</v>
       </c>
       <c r="M81">
-        <v>517208000.3259017</v>
+        <v>6253315.870000002</v>
       </c>
       <c r="N81">
-        <v>770467340.5155218</v>
+        <v>56279842.47</v>
       </c>
       <c r="O81">
-        <v>770467340.5155218</v>
+        <v>31266579.18</v>
       </c>
       <c r="P81">
-        <v>197</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Advanced support services for SMEs and groups of SMEs (including management, marketing and design services)</t>
+          <t>Research and innovation infrastructure, processes, technology transfer and cooperation in enterprises focusing on the low carbon economy and on resilience to climate change</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IV.2.066</t>
+          <t>IV.1.065</t>
         </is>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5020,37 +5012,37 @@
         </is>
       </c>
       <c r="F82">
-        <v>2345619847.679999</v>
+        <v>9292124058.14308</v>
       </c>
       <c r="G82">
-        <v>1351497932.38</v>
+        <v>3221117743.29</v>
       </c>
       <c r="H82">
-        <v>77661400.25</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>916460515.0499997</v>
+        <v>6071006314.853077</v>
       </c>
       <c r="J82">
-        <v>1436330275.950001</v>
+        <v>2935176577.215472</v>
       </c>
       <c r="K82">
-        <v>796356884.3500003</v>
+        <v>1126236505.029688</v>
       </c>
       <c r="L82">
-        <v>33510749.91</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>829867634.2600002</v>
+        <v>1808940072.185785</v>
       </c>
       <c r="N82">
-        <v>606462641.6900005</v>
+        <v>1126236505.029688</v>
       </c>
       <c r="O82">
-        <v>639973391.6000006</v>
+        <v>1808940072.185785</v>
       </c>
       <c r="P82">
-        <v>894</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83">
@@ -5069,57 +5061,57 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F83">
-        <v>391497617.1</v>
+        <v>2239818318.24</v>
       </c>
       <c r="G83">
-        <v>195748808.55</v>
+        <v>1298597167.67</v>
       </c>
       <c r="H83">
-        <v>137720089.19</v>
+        <v>77661400.25</v>
       </c>
       <c r="I83">
-        <v>58028719.36</v>
+        <v>863559750.3199997</v>
       </c>
       <c r="J83">
-        <v>251241906.384</v>
+        <v>1627377045.01</v>
       </c>
       <c r="K83">
-        <v>125620953.147</v>
+        <v>922351335.3599995</v>
       </c>
       <c r="L83">
-        <v>97740360.36999997</v>
+        <v>46569778.51000001</v>
       </c>
       <c r="M83">
-        <v>223361313.517</v>
+        <v>658455931.1400003</v>
       </c>
       <c r="N83">
-        <v>27880592.86700005</v>
+        <v>968921113.8699992</v>
       </c>
       <c r="O83">
-        <v>125620953.237</v>
+        <v>705025709.6500002</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>894</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SME business development, support to entrepreneurship and incubation (including support to spin offs and spin outs)</t>
+          <t>Advanced support services for SMEs and groups of SMEs (including management, marketing and design services)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IV.2.067</t>
+          <t>IV.2.066</t>
         </is>
       </c>
       <c r="C84">
@@ -5127,46 +5119,46 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F84">
-        <v>20780811891.80001</v>
+        <v>391497617.1</v>
       </c>
       <c r="G84">
-        <v>8620760950.199986</v>
+        <v>195748808.55</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>137720089.19</v>
       </c>
       <c r="I84">
-        <v>12160050941.60001</v>
+        <v>58028719.36</v>
       </c>
       <c r="J84">
-        <v>12506897445.48998</v>
+        <v>319258006.17</v>
       </c>
       <c r="K84">
-        <v>5293424653.399991</v>
+        <v>159629003.04</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>108807827.17</v>
       </c>
       <c r="M84">
-        <v>5293424653.399991</v>
+        <v>50821175.96000004</v>
       </c>
       <c r="N84">
-        <v>7213472792.089994</v>
+        <v>268436830.21</v>
       </c>
       <c r="O84">
-        <v>7213472792.089994</v>
+        <v>159629003.13</v>
       </c>
       <c r="P84">
-        <v>2056</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -5185,119 +5177,119 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F85">
-        <v>398356978.53</v>
+        <v>19363196725.97999</v>
       </c>
       <c r="G85">
-        <v>199178489.25</v>
+        <v>8046010864.899996</v>
       </c>
       <c r="H85">
-        <v>86690597.72999999</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>112487891.55</v>
+        <v>11317185861.08</v>
       </c>
       <c r="J85">
-        <v>234902726.186</v>
+        <v>15155539174.83998</v>
       </c>
       <c r="K85">
-        <v>117436363.013</v>
+        <v>6346262008.069997</v>
       </c>
       <c r="L85">
-        <v>72104549.26000001</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>189540912.273</v>
+        <v>8809277166.769997</v>
       </c>
       <c r="N85">
-        <v>45361813.913</v>
+        <v>6346262008.069997</v>
       </c>
       <c r="O85">
-        <v>117466363.173</v>
+        <v>8809277166.769997</v>
       </c>
       <c r="P85">
-        <v>12</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Energy efficiency and demonstration projects in SMEs and supporting measures</t>
+          <t>SME business development, support to entrepreneurship and incubation (including support to spin offs and spin outs)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IV.2.068</t>
+          <t>IV.2.067</t>
         </is>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F86">
-        <v>22546772701.98997</v>
+        <v>398356978.53</v>
       </c>
       <c r="G86">
-        <v>10389674813.41996</v>
+        <v>199178489.25</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>86690597.73</v>
       </c>
       <c r="I86">
-        <v>12157097888.57006</v>
+        <v>112487891.55</v>
       </c>
       <c r="J86">
-        <v>12861379481.32002</v>
+        <v>354600266.05</v>
       </c>
       <c r="K86">
-        <v>5945200126.279987</v>
+        <v>177285132.93</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>79926279.11000001</v>
       </c>
       <c r="M86">
-        <v>5945200126.279987</v>
+        <v>97388854.00999999</v>
       </c>
       <c r="N86">
-        <v>6916179355.039996</v>
+        <v>257211412.04</v>
       </c>
       <c r="O86">
-        <v>6916179355.039996</v>
+        <v>177315133.12</v>
       </c>
       <c r="P86">
-        <v>3108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Support to environmentally-friendly production processes and resource efficiency in SMEs</t>
+          <t>Energy efficiency and demonstration projects in SMEs and supporting measures</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>IV.2.069</t>
+          <t>IV.2.068</t>
         </is>
       </c>
       <c r="C87">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5310,52 +5302,52 @@
         </is>
       </c>
       <c r="F87">
-        <v>3553947858.36</v>
+        <v>21170723156.63997</v>
       </c>
       <c r="G87">
-        <v>1641214368.17</v>
+        <v>9774956209.469963</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2879795.8</v>
       </c>
       <c r="I87">
-        <v>1912733490.189998</v>
+        <v>11392887151.37003</v>
       </c>
       <c r="J87">
-        <v>2011085676.82</v>
+        <v>16395997173.76</v>
       </c>
       <c r="K87">
-        <v>965729107.6999992</v>
+        <v>7567001815.839972</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>965729107.6999992</v>
+        <v>8828995357.919994</v>
       </c>
       <c r="N87">
-        <v>1045356569.119999</v>
+        <v>7567001815.839972</v>
       </c>
       <c r="O87">
-        <v>1045356569.119999</v>
+        <v>8828995357.919994</v>
       </c>
       <c r="P87">
-        <v>986</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Promotion of energy efficiency in large enterprises</t>
+          <t>Support to environmentally-friendly production processes and resource efficiency in SMEs</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>IV.2.070</t>
+          <t>IV.2.069</t>
         </is>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5368,52 +5360,52 @@
         </is>
       </c>
       <c r="F88">
-        <v>14256245126.82</v>
+        <v>3261484177.719999</v>
       </c>
       <c r="G88">
-        <v>4340633504.239995</v>
+        <v>1529747658.320001</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>9915611622.579996</v>
+        <v>1731736519.4</v>
       </c>
       <c r="J88">
-        <v>6610450862.690001</v>
+        <v>2878995476.49</v>
       </c>
       <c r="K88">
-        <v>2025560066.5</v>
+        <v>1325051481.179999</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
       <c r="M88">
-        <v>2025560066.5</v>
+        <v>1553943995.31</v>
       </c>
       <c r="N88">
-        <v>4584890796.190003</v>
+        <v>1325051481.179999</v>
       </c>
       <c r="O88">
-        <v>4584890796.190003</v>
+        <v>1553943995.31</v>
       </c>
       <c r="P88">
-        <v>795</v>
+        <v>989</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Business infrastructure for SMEs (including industrial parks and sites)</t>
+          <t>Promotion of energy efficiency in large enterprises</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IV.2.072</t>
+          <t>IV.2.070</t>
         </is>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5426,48 +5418,48 @@
         </is>
       </c>
       <c r="F89">
-        <v>10989247331.39</v>
+        <v>13230956391.16</v>
       </c>
       <c r="G89">
-        <v>4649620517.03</v>
+        <v>4041148384.379996</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>6339626814.36</v>
+        <v>9189808006.780006</v>
       </c>
       <c r="J89">
-        <v>7400317261.700002</v>
+        <v>8895048307.049999</v>
       </c>
       <c r="K89">
-        <v>3169832353.700001</v>
+        <v>2724306682.42</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
       <c r="M89">
-        <v>3169832353.700001</v>
+        <v>6170741624.630009</v>
       </c>
       <c r="N89">
-        <v>4230484908</v>
+        <v>2724306682.42</v>
       </c>
       <c r="O89">
-        <v>4230484908</v>
+        <v>6170741624.630009</v>
       </c>
       <c r="P89">
-        <v>447</v>
+        <v>818</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Support to social enterprises (SMEs)</t>
+          <t>Business infrastructure for SMEs (including industrial parks and sites)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IV.2.073</t>
+          <t>IV.2.072</t>
         </is>
       </c>
       <c r="C90">
@@ -5475,46 +5467,46 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F90">
-        <v>652324248.9200002</v>
+        <v>10064177985.77</v>
       </c>
       <c r="G90">
-        <v>554475611.4200001</v>
+        <v>4267481200.029999</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
-        <v>97848637.49999993</v>
+        <v>5796696785.74</v>
       </c>
       <c r="J90">
-        <v>559653233.5599999</v>
+        <v>9015084644.229998</v>
       </c>
       <c r="K90">
-        <v>475705248.03</v>
+        <v>3843305819.739997</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>475705248.03</v>
+        <v>5171778824.490003</v>
       </c>
       <c r="N90">
-        <v>83947985.53000002</v>
+        <v>3843305819.739997</v>
       </c>
       <c r="O90">
-        <v>83947985.53000002</v>
+        <v>5171778824.490003</v>
       </c>
       <c r="P90">
-        <v>199</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91">
@@ -5533,57 +5525,57 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F91">
-        <v>58832552.3</v>
+        <v>621388615.1700002</v>
       </c>
       <c r="G91">
-        <v>29416276.14</v>
+        <v>528180322.7400001</v>
       </c>
       <c r="H91">
-        <v>29416276.16</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>93208292.42999998</v>
       </c>
       <c r="J91">
-        <v>42954447.18</v>
+        <v>578374677.6100001</v>
       </c>
       <c r="K91">
-        <v>21477223.56</v>
+        <v>491618475.4200002</v>
       </c>
       <c r="L91">
-        <v>21477223.62</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>42954447.18</v>
+        <v>86756202.19000003</v>
       </c>
       <c r="N91">
-        <v>-5.820766091346741e-11</v>
+        <v>491618475.4200002</v>
       </c>
       <c r="O91">
-        <v>21477223.62</v>
+        <v>86756202.19000003</v>
       </c>
       <c r="P91">
-        <v>22</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Development and promotion of commercial tourism assets in SMEs</t>
+          <t>Support to social enterprises (SMEs)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IV.2.074</t>
+          <t>IV.2.073</t>
         </is>
       </c>
       <c r="C92">
@@ -5591,57 +5583,57 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="F92">
-        <v>748603522.79</v>
+        <v>58832552.3</v>
       </c>
       <c r="G92">
-        <v>321636915.5799999</v>
+        <v>29416276.14</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>29416276.16</v>
       </c>
       <c r="I92">
-        <v>426966607.21</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>38091544.53</v>
+        <v>46120358.35999999</v>
       </c>
       <c r="K92">
-        <v>17141195.01</v>
+        <v>23060179.15</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>23060179.21</v>
       </c>
       <c r="M92">
-        <v>17141195.01</v>
+        <v>-5.820766091346741e-11</v>
       </c>
       <c r="N92">
-        <v>20950349.52</v>
+        <v>46120358.35999999</v>
       </c>
       <c r="O92">
-        <v>20950349.52</v>
+        <v>23060179.21</v>
       </c>
       <c r="P92">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>e-Government services and applications (including e-Procurement, ICT measures supporting the reform of public administration, cyber-security, trust and privacy measures, e-Justice and e-Democracy)</t>
+          <t>Development and promotion of commercial tourism assets in SMEs</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IV.3.078</t>
+          <t>IV.2.074</t>
         </is>
       </c>
       <c r="C93">
@@ -5649,57 +5641,57 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F93">
-        <v>9799023424.099998</v>
+        <v>632048981.73</v>
       </c>
       <c r="G93">
-        <v>8078009416.020008</v>
+        <v>276449214.0599999</v>
       </c>
       <c r="H93">
-        <v>1498038093.78</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>222975914.2999999</v>
+        <v>355599767.67</v>
       </c>
       <c r="J93">
-        <v>4114558506.389999</v>
+        <v>168527076.33</v>
       </c>
       <c r="K93">
-        <v>3432229412.599997</v>
+        <v>74598304.95</v>
       </c>
       <c r="L93">
-        <v>566587075.2500002</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>3998816487.849998</v>
+        <v>93928771.38000003</v>
       </c>
       <c r="N93">
-        <v>115742018.5400001</v>
+        <v>74598304.95</v>
       </c>
       <c r="O93">
-        <v>682329093.7900002</v>
+        <v>93928771.38000003</v>
       </c>
       <c r="P93">
-        <v>359</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICT Services and applications for SMEs (including e-Commerce, e-Business and networked business processes), living labs, web entrepreneurs and ICT start-ups)</t>
+          <t>e-Government services and applications (including e-Procurement, ICT measures supporting the reform of public administration, cyber-security, trust and privacy measures, e-Justice and e-Democracy)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IV.3.082</t>
+          <t>IV.3.078</t>
         </is>
       </c>
       <c r="C94">
@@ -5707,115 +5699,115 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>OP PIK</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F94">
-        <v>5313870412.85</v>
+        <v>8766936182.119999</v>
       </c>
       <c r="G94">
-        <v>2265028820.410001</v>
+        <v>7243065846.389999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1305421564.42</v>
       </c>
       <c r="I94">
-        <v>3048841592.44</v>
+        <v>218448771.31</v>
       </c>
       <c r="J94">
-        <v>4392479938.139998</v>
+        <v>5118496766.570002</v>
       </c>
       <c r="K94">
-        <v>1867426602.970001</v>
+        <v>4254960554.670002</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>723261184.84</v>
       </c>
       <c r="M94">
-        <v>1867426602.970001</v>
+        <v>140275027.06</v>
       </c>
       <c r="N94">
-        <v>2525053335.17</v>
+        <v>4978221739.51</v>
       </c>
       <c r="O94">
-        <v>2525053335.17</v>
+        <v>863536211.9000002</v>
       </c>
       <c r="P94">
-        <v>532</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Air quality measures</t>
+          <t>ICT Services and applications for SMEs (including e-Commerce, e-Business and networked business processes), living labs, web entrepreneurs and ICT start-ups)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>IV.4.083</t>
+          <t>IV.3.082</t>
         </is>
       </c>
       <c r="C95">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>OP PIK</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F95">
-        <v>18334478447.65</v>
+        <v>5183592845.25</v>
       </c>
       <c r="G95">
-        <v>15260878907.36001</v>
+        <v>2206500288.649999</v>
       </c>
       <c r="H95">
-        <v>157676635.5700001</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>2915922904.72</v>
+        <v>2977092556.6</v>
       </c>
       <c r="J95">
-        <v>14246419932.63</v>
+        <v>4462463665.899998</v>
       </c>
       <c r="K95">
-        <v>12318360306.61</v>
+        <v>1897488141.02</v>
       </c>
       <c r="L95">
-        <v>110395773.14</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>12428756079.75</v>
+        <v>2564975524.879999</v>
       </c>
       <c r="N95">
-        <v>1817663852.88</v>
+        <v>1897488141.02</v>
       </c>
       <c r="O95">
-        <v>1928059626.02</v>
+        <v>2564975524.879999</v>
       </c>
       <c r="P95">
-        <v>328</v>
+        <v>687</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Protection and enhancement of biodiversity, nature protection and green infrastructure</t>
+          <t>Air quality measures</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IV.4.085</t>
+          <t>IV.4.083</t>
         </is>
       </c>
       <c r="C96">
@@ -5832,48 +5824,48 @@
         </is>
       </c>
       <c r="F96">
-        <v>8863852245.569998</v>
+        <v>17797680210.19</v>
       </c>
       <c r="G96">
-        <v>7936452141.750014</v>
+        <v>14950679036.28</v>
       </c>
       <c r="H96">
-        <v>688706081.4300001</v>
+        <v>157629846.4399999</v>
       </c>
       <c r="I96">
-        <v>238694022.3900001</v>
+        <v>2689371327.469999</v>
       </c>
       <c r="J96">
-        <v>5105743126.880007</v>
+        <v>15821570553.95</v>
       </c>
       <c r="K96">
-        <v>4547972314.249995</v>
+        <v>13506679852.89</v>
       </c>
       <c r="L96">
-        <v>434072994.0200002</v>
+        <v>133057286.38</v>
       </c>
       <c r="M96">
-        <v>4982045308.27</v>
+        <v>2181833414.68</v>
       </c>
       <c r="N96">
-        <v>123697818.61</v>
+        <v>13639737139.27</v>
       </c>
       <c r="O96">
-        <v>557770812.63</v>
+        <v>2314890701.059999</v>
       </c>
       <c r="P96">
-        <v>2173</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Protection, restoration and sustainable use of Natura 2000 sites</t>
+          <t>Protection and enhancement of biodiversity, nature protection and green infrastructure</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IV.4.086</t>
+          <t>IV.4.085</t>
         </is>
       </c>
       <c r="C97">
@@ -5890,95 +5882,95 @@
         </is>
       </c>
       <c r="F97">
-        <v>1408751778.51</v>
+        <v>8759341605.409998</v>
       </c>
       <c r="G97">
-        <v>1233418481.79</v>
+        <v>7864403388.479996</v>
       </c>
       <c r="H97">
-        <v>148955531.53</v>
+        <v>665053283.9599998</v>
       </c>
       <c r="I97">
-        <v>26377765.19</v>
+        <v>229884932.97</v>
       </c>
       <c r="J97">
-        <v>838995461.54</v>
+        <v>6843407154.360003</v>
       </c>
       <c r="K97">
-        <v>762013455.5900002</v>
+        <v>6113163630.899982</v>
       </c>
       <c r="L97">
-        <v>70613306.84999999</v>
+        <v>554664903.1400001</v>
       </c>
       <c r="M97">
-        <v>832626762.4400001</v>
+        <v>175578620.32</v>
       </c>
       <c r="N97">
-        <v>6368699.100000001</v>
+        <v>6667828534.040001</v>
       </c>
       <c r="O97">
-        <v>76982005.94999999</v>
+        <v>730243523.4600012</v>
       </c>
       <c r="P97">
-        <v>94</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Adaptation to climate change measures and prevention and management of climate related risks e.g. erosion, fires, flooding, storms and drought, including awareness raising, civil protection and disaster management systems and infrastructures</t>
+          <t>Protection, restoration and sustainable use of Natura 2000 sites</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>IV.4.087</t>
+          <t>IV.4.086</t>
         </is>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F98">
-        <v>6811909332.823117</v>
+        <v>1467897395.169999</v>
       </c>
       <c r="G98">
-        <v>5830870989.732</v>
+        <v>1265821264.529999</v>
       </c>
       <c r="H98">
-        <v>981038343.0911176</v>
+        <v>175698365.45</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>26377765.19</v>
       </c>
       <c r="J98">
-        <v>4489240936.489626</v>
+        <v>1107971577.19</v>
       </c>
       <c r="K98">
-        <v>3852710452.096684</v>
+        <v>977429885.4099997</v>
       </c>
       <c r="L98">
-        <v>636530484.3929441</v>
+        <v>112586779.43</v>
       </c>
       <c r="M98">
-        <v>4489240936.489626</v>
+        <v>17954912.35</v>
       </c>
       <c r="N98">
-        <v>2.558226697146893e-08</v>
+        <v>1090016664.84</v>
       </c>
       <c r="O98">
-        <v>636530484.3929441</v>
+        <v>130541691.78</v>
       </c>
       <c r="P98">
-        <v>555</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99">
@@ -5997,104 +5989,104 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F99">
-        <v>1591438284.74</v>
+        <v>7080549087.823118</v>
       </c>
       <c r="G99">
-        <v>1328216025.26</v>
+        <v>6059508781.377001</v>
       </c>
       <c r="H99">
-        <v>256091151.03</v>
+        <v>1021040306.446118</v>
       </c>
       <c r="I99">
-        <v>7131108.45</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>1104018905.89</v>
+        <v>5310242552.033724</v>
       </c>
       <c r="K99">
-        <v>924325558.25</v>
+        <v>4552468032.237315</v>
       </c>
       <c r="L99">
-        <v>172625614.91</v>
+        <v>757774519.7964082</v>
       </c>
       <c r="M99">
-        <v>1096951173.16</v>
+        <v>5.409528966915813e-08</v>
       </c>
       <c r="N99">
-        <v>7067732.729999995</v>
+        <v>5310242552.033724</v>
       </c>
       <c r="O99">
-        <v>179693347.64</v>
+        <v>757774519.7964084</v>
       </c>
       <c r="P99">
-        <v>219</v>
+        <v>557</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Risk prevention and management of non-climate related natural risks (i.e. earthquakes) and risks linked to human activities (e.g. technological accidents), including awareness raising, civil protection and disaster management systems and infrastructures</t>
+          <t>Adaptation to climate change measures and prevention and management of climate related risks e.g. erosion, fires, flooding, storms and drought, including awareness raising, civil protection and disaster management systems and infrastructures</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IV.4.088</t>
+          <t>IV.4.087</t>
         </is>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>IROP</t>
+          <t>OP ŽP</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="F100">
-        <v>290719094.7418823</v>
+        <v>1646166348.4</v>
       </c>
       <c r="G100">
-        <v>248936276.618</v>
+        <v>1380438622.41</v>
       </c>
       <c r="H100">
-        <v>41782818.12388237</v>
+        <v>258596617.54</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>7131108.449999999</v>
       </c>
       <c r="J100">
-        <v>22031215.93037389</v>
+        <v>1325241037.07</v>
       </c>
       <c r="K100">
-        <v>20305975.1253178</v>
+        <v>1109458506.12</v>
       </c>
       <c r="L100">
-        <v>1725240.805056084</v>
+        <v>208714798.2199999</v>
       </c>
       <c r="M100">
-        <v>22031215.93037389</v>
+        <v>7067732.729999998</v>
       </c>
       <c r="N100">
-        <v>5.238689482212067e-10</v>
+        <v>1318173304.34</v>
       </c>
       <c r="O100">
-        <v>1725240.805056084</v>
+        <v>215782530.9499999</v>
       </c>
       <c r="P100">
-        <v>60</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101">
@@ -6109,7 +6101,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6122,37 +6114,37 @@
         </is>
       </c>
       <c r="F101">
-        <v>502723613.335</v>
+        <v>290984484.7418799</v>
       </c>
       <c r="G101">
-        <v>427315071.3099999</v>
+        <v>249188518.1179979</v>
       </c>
       <c r="H101">
-        <v>75408542.02499999</v>
+        <v>41795966.623882</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>456896701.23</v>
+        <v>89576346.72127564</v>
       </c>
       <c r="K101">
-        <v>388362195.9579999</v>
+        <v>77826623.9896843</v>
       </c>
       <c r="L101">
-        <v>68534505.27200001</v>
+        <v>11749722.73159134</v>
       </c>
       <c r="M101">
-        <v>456896701.23</v>
+        <v>8.963979788402012e-10</v>
       </c>
       <c r="N101">
-        <v>-1.676380634307861e-08</v>
+        <v>89576346.72127564</v>
       </c>
       <c r="O101">
-        <v>68534505.272</v>
+        <v>11749722.73159135</v>
       </c>
       <c r="P101">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
@@ -6167,50 +6159,50 @@
         </is>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>OP ŽP</t>
+          <t>IROP</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>502723613.335</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>427315071.3099999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>75408542.02500001</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>487599045.05</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>414459188.198</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>73139856.852</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>-1.676380634307861e-08</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>487599045.05</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>73139856.85199998</v>
       </c>
       <c r="P102">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -6238,37 +6230,37 @@
         </is>
       </c>
       <c r="F103">
-        <v>2967863083.34</v>
+        <v>3290403085.710002</v>
       </c>
       <c r="G103">
-        <v>2224466850.400001</v>
+        <v>2459856628.63</v>
       </c>
       <c r="H103">
-        <v>739749288.9300004</v>
+        <v>826899513.0699991</v>
       </c>
       <c r="I103">
-        <v>3646944.01</v>
+        <v>3646944.009999999</v>
       </c>
       <c r="J103">
-        <v>2498439915.600001</v>
+        <v>2810850428.160001</v>
       </c>
       <c r="K103">
-        <v>1873657230.88</v>
+        <v>2103355943.110001</v>
       </c>
       <c r="L103">
-        <v>621140196.6600003</v>
+        <v>703851996.9899988</v>
       </c>
       <c r="M103">
-        <v>2494797427.540001</v>
+        <v>3642488.06000001</v>
       </c>
       <c r="N103">
-        <v>3642488.060000015</v>
+        <v>2807207940.100001</v>
       </c>
       <c r="O103">
-        <v>624782684.7200001</v>
+        <v>707494485.049999</v>
       </c>
       <c r="P103">
-        <v>779</v>
+        <v>880</v>
       </c>
     </row>
     <row r="104">
@@ -6326,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -6354,37 +6346,37 @@
         </is>
       </c>
       <c r="F105">
-        <v>3585560789.360001</v>
+        <v>3564157331.929999</v>
       </c>
       <c r="G105">
-        <v>3046577243.02</v>
+        <v>3028384304.200002</v>
       </c>
       <c r="H105">
-        <v>202098364.43</v>
+        <v>200559028.64</v>
       </c>
       <c r="I105">
-        <v>336885181.91</v>
+        <v>335213999.0899999</v>
       </c>
       <c r="J105">
-        <v>1894794007.43</v>
+        <v>2717686065.55</v>
       </c>
       <c r="K105">
-        <v>1609045565.01</v>
+        <v>2308467112.5</v>
       </c>
       <c r="L105">
-        <v>153462998.32</v>
+        <v>171082438.66</v>
       </c>
       <c r="M105">
-        <v>1762508563.33</v>
+        <v>238136514.39</v>
       </c>
       <c r="N105">
-        <v>132285444.1</v>
+        <v>2479549551.16</v>
       </c>
       <c r="O105">
-        <v>285748442.42</v>
+        <v>409218953.0499999</v>
       </c>
       <c r="P105">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
@@ -6412,10 +6404,10 @@
         </is>
       </c>
       <c r="F106">
-        <v>13716484.86</v>
+        <v>92605042.25</v>
       </c>
       <c r="G106">
-        <v>13716484.86</v>
+        <v>92605042.25</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -6424,25 +6416,25 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>7936095.15</v>
+        <v>68595377.31</v>
       </c>
       <c r="K106">
-        <v>7936095.15</v>
+        <v>68595377.31</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>7936095.15</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>68595377.31</v>
       </c>
       <c r="O106">
         <v>0</v>
       </c>
       <c r="P106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -6470,37 +6462,37 @@
         </is>
       </c>
       <c r="F107">
-        <v>15271194397.73</v>
+        <v>15055614862.15</v>
       </c>
       <c r="G107">
-        <v>12980515237.43</v>
+        <v>12797272632.17</v>
       </c>
       <c r="H107">
-        <v>1896467925.320001</v>
+        <v>1862846600.4</v>
       </c>
       <c r="I107">
-        <v>394211234.9800001</v>
+        <v>395495629.58</v>
       </c>
       <c r="J107">
-        <v>8691666240.640001</v>
+        <v>11361524524.42</v>
       </c>
       <c r="K107">
-        <v>7387916300.22</v>
+        <v>9657295840.339998</v>
       </c>
       <c r="L107">
-        <v>1081262421.440001</v>
+        <v>1396109504.180001</v>
       </c>
       <c r="M107">
-        <v>8469178721.659999</v>
+        <v>308119179.8999999</v>
       </c>
       <c r="N107">
-        <v>222487518.9800001</v>
+        <v>11053405344.52</v>
       </c>
       <c r="O107">
-        <v>1303749940.420002</v>
+        <v>1704228684.079999</v>
       </c>
       <c r="P107">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108">
@@ -6540,22 +6532,22 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>32594111.23</v>
+        <v>40161357.89</v>
       </c>
       <c r="K108">
-        <v>3259411.23</v>
+        <v>4016135.89</v>
       </c>
       <c r="L108">
-        <v>29334700</v>
+        <v>36145222</v>
       </c>
       <c r="M108">
-        <v>32594111.23</v>
+        <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>40161357.89</v>
       </c>
       <c r="O108">
-        <v>29334700</v>
+        <v>36145222</v>
       </c>
       <c r="P108">
         <v>1</v>
@@ -6586,34 +6578,34 @@
         </is>
       </c>
       <c r="F109">
-        <v>230538791.4</v>
+        <v>224418891.4</v>
       </c>
       <c r="G109">
-        <v>195957972.67</v>
+        <v>190756057.67</v>
       </c>
       <c r="H109">
-        <v>34580818.73</v>
+        <v>33662833.73</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>219403581.96</v>
+        <v>222340917.46</v>
       </c>
       <c r="K109">
-        <v>186493044.53</v>
+        <v>188989779.7</v>
       </c>
       <c r="L109">
-        <v>32910537.42999998</v>
+        <v>33351137.75999999</v>
       </c>
       <c r="M109">
-        <v>219403581.96</v>
+        <v>-1.047737896442413e-09</v>
       </c>
       <c r="N109">
-        <v>-9.313225746154785e-10</v>
+        <v>222340917.46</v>
       </c>
       <c r="O109">
-        <v>32910537.42999998</v>
+        <v>33351137.75999999</v>
       </c>
       <c r="P109">
         <v>187</v>
@@ -6644,37 +6636,37 @@
         </is>
       </c>
       <c r="F110">
-        <v>6829564105.620008</v>
+        <v>6972035318.199999</v>
       </c>
       <c r="G110">
-        <v>6488085895.590005</v>
+        <v>6623433547.129996</v>
       </c>
       <c r="H110">
-        <v>190123989.0600003</v>
+        <v>197323782.3800001</v>
       </c>
       <c r="I110">
-        <v>151354220.9699999</v>
+        <v>151277988.69</v>
       </c>
       <c r="J110">
-        <v>4834336999.589993</v>
+        <v>6002315847.179989</v>
       </c>
       <c r="K110">
-        <v>4592620140.40999</v>
+        <v>5702200043.389996</v>
       </c>
       <c r="L110">
-        <v>144675998.43</v>
+        <v>180245758.4599997</v>
       </c>
       <c r="M110">
-        <v>4737296138.839992</v>
+        <v>119870045.3300001</v>
       </c>
       <c r="N110">
-        <v>97040860.74999993</v>
+        <v>5882445801.849994</v>
       </c>
       <c r="O110">
-        <v>241716859.1800005</v>
+        <v>300115803.7900007</v>
       </c>
       <c r="P110">
-        <v>2332</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="111">
@@ -6702,37 +6694,37 @@
         </is>
       </c>
       <c r="F111">
-        <v>2714370918.56</v>
+        <v>3587202101.76</v>
       </c>
       <c r="G111">
-        <v>2307215280.69</v>
+        <v>3049121786.390001</v>
       </c>
       <c r="H111">
-        <v>407155637.87</v>
+        <v>538080315.3700001</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>2201264855.04</v>
+        <v>2682942788.25</v>
       </c>
       <c r="K111">
-        <v>1871075120.77</v>
+        <v>2280501363.639999</v>
       </c>
       <c r="L111">
-        <v>330189734.27</v>
+        <v>402441424.6099999</v>
       </c>
       <c r="M111">
-        <v>2201264855.039999</v>
+        <v>2.495362423360348e-07</v>
       </c>
       <c r="N111">
-        <v>2.473825588822365e-07</v>
+        <v>2682942788.249999</v>
       </c>
       <c r="O111">
-        <v>330189734.2700001</v>
+        <v>402441424.6100001</v>
       </c>
       <c r="P111">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112">
@@ -6772,22 +6764,22 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>679576162.2094755</v>
+        <v>800760171.4622108</v>
       </c>
       <c r="K112">
-        <v>577639737.2302839</v>
+        <v>680646144.9442319</v>
       </c>
       <c r="L112">
-        <v>101936424.9791917</v>
+        <v>120114026.517979</v>
       </c>
       <c r="M112">
-        <v>679576162.2094755</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>-5.960464477539062e-08</v>
+        <v>800760171.4622108</v>
       </c>
       <c r="O112">
-        <v>101936424.9791916</v>
+        <v>120114026.517979</v>
       </c>
       <c r="P112">
         <v>3</v>
@@ -6818,34 +6810,34 @@
         </is>
       </c>
       <c r="F113">
-        <v>3450692080.84</v>
+        <v>3467420586.84</v>
       </c>
       <c r="G113">
-        <v>2933088268.69</v>
+        <v>2947307498.79</v>
       </c>
       <c r="H113">
-        <v>517603812.15</v>
+        <v>520113088.05</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>2124184384.28</v>
+        <v>2540761051.87</v>
       </c>
       <c r="K113">
-        <v>1805556725.61</v>
+        <v>2159646892.79</v>
       </c>
       <c r="L113">
-        <v>318627658.6699999</v>
+        <v>381114159.08</v>
       </c>
       <c r="M113">
-        <v>2124184384.28</v>
+        <v>3.14321368932724e-09</v>
       </c>
       <c r="N113">
-        <v>6.065238267183304e-08</v>
+        <v>2540761051.87</v>
       </c>
       <c r="O113">
-        <v>318627658.67</v>
+        <v>381114159.08</v>
       </c>
       <c r="P113">
         <v>40</v>
@@ -6888,22 +6880,22 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>121980540.8797559</v>
+        <v>154647433.7386222</v>
       </c>
       <c r="K114">
-        <v>60990270.42487793</v>
+        <v>77323716.85181113</v>
       </c>
       <c r="L114">
-        <v>60990270.45487794</v>
+        <v>77323716.88681112</v>
       </c>
       <c r="M114">
-        <v>121980540.8797559</v>
+        <v>0</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>154647433.7386222</v>
       </c>
       <c r="O114">
-        <v>60990270.45487794</v>
+        <v>77323716.88681112</v>
       </c>
       <c r="P114">
         <v>1</v>
@@ -6934,37 +6926,37 @@
         </is>
       </c>
       <c r="F115">
-        <v>6792987521.290001</v>
+        <v>7287270054.660002</v>
       </c>
       <c r="G115">
-        <v>5774039392.573729</v>
+        <v>6194179545.838723</v>
       </c>
       <c r="H115">
-        <v>1018948128.716275</v>
+        <v>1093090508.821275</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>5220015487.109655</v>
+        <v>6029853045.054941</v>
       </c>
       <c r="K115">
-        <v>4437013159.42386</v>
+        <v>5125375082.861947</v>
       </c>
       <c r="L115">
-        <v>783002327.685798</v>
+        <v>904477962.1929911</v>
       </c>
       <c r="M115">
-        <v>5220015487.109654</v>
+        <v>5.647307261824608e-08</v>
       </c>
       <c r="N115">
-        <v>2.498272806406021e-08</v>
+        <v>6029853045.054941</v>
       </c>
       <c r="O115">
-        <v>783002327.685798</v>
+        <v>904477962.1929911</v>
       </c>
       <c r="P115">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116">
@@ -6992,34 +6984,34 @@
         </is>
       </c>
       <c r="F116">
-        <v>2784941225.807067</v>
+        <v>3212766866.065163</v>
       </c>
       <c r="G116">
-        <v>2259979804.597754</v>
+        <v>2607160311.627228</v>
       </c>
       <c r="H116">
-        <v>524961421.2093127</v>
+        <v>605606554.4379344</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>2395805201.55183</v>
+        <v>2731774905.254949</v>
       </c>
       <c r="K116">
-        <v>1944195919.735718</v>
+        <v>2216835334.098719</v>
       </c>
       <c r="L116">
-        <v>451609281.8161114</v>
+        <v>514939571.1562299</v>
       </c>
       <c r="M116">
-        <v>2395805201.55183</v>
+        <v>2.654269337632268e-08</v>
       </c>
       <c r="N116">
-        <v>7.688067853129115e-09</v>
+        <v>2731774905.254949</v>
       </c>
       <c r="O116">
-        <v>451609281.8161116</v>
+        <v>514939571.1562299</v>
       </c>
       <c r="P116">
         <v>31</v>
@@ -7050,34 +7042,34 @@
         </is>
       </c>
       <c r="F117">
-        <v>2503186510.002429</v>
+        <v>2641186510.396544</v>
       </c>
       <c r="G117">
-        <v>2060685714.69</v>
+        <v>2174290765.012447</v>
       </c>
       <c r="H117">
-        <v>442500795.3124294</v>
+        <v>466895745.384096</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>1826628224.70423</v>
+        <v>2184676138.284274</v>
       </c>
       <c r="K117">
-        <v>1503726020.069189</v>
+        <v>1798480013.681226</v>
       </c>
       <c r="L117">
-        <v>322902204.6350406</v>
+        <v>386196124.6030484</v>
       </c>
       <c r="M117">
-        <v>1826628224.70423</v>
+        <v>-2.980232238769531e-08</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>2184676138.284274</v>
       </c>
       <c r="O117">
-        <v>322902204.6350406</v>
+        <v>386196124.6030484</v>
       </c>
       <c r="P117">
         <v>3</v>
@@ -7108,37 +7100,37 @@
         </is>
       </c>
       <c r="F118">
-        <v>2847706131.13</v>
+        <v>2922100773.34</v>
       </c>
       <c r="G118">
-        <v>2420550211.45</v>
+        <v>2483785657.32</v>
       </c>
       <c r="H118">
-        <v>427155919.6799999</v>
+        <v>438315116.02</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>1946670614.42</v>
+        <v>2291427428.99</v>
       </c>
       <c r="K118">
-        <v>1654670021.45</v>
+        <v>1947711741.41</v>
       </c>
       <c r="L118">
-        <v>292000592.97</v>
+        <v>343715687.58</v>
       </c>
       <c r="M118">
-        <v>1946670614.42</v>
+        <v>4.540197551250458e-09</v>
       </c>
       <c r="N118">
-        <v>-1.530861482024193e-08</v>
+        <v>2291427428.99</v>
       </c>
       <c r="O118">
-        <v>292000592.97</v>
+        <v>343715687.58</v>
       </c>
       <c r="P118">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="119">
@@ -7166,34 +7158,34 @@
         </is>
       </c>
       <c r="F119">
-        <v>30250000</v>
+        <v>29499800</v>
       </c>
       <c r="G119">
-        <v>25712500</v>
+        <v>25074830</v>
       </c>
       <c r="H119">
-        <v>4537500</v>
+        <v>4424970</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>6651007</v>
+        <v>7711330</v>
       </c>
       <c r="K119">
-        <v>5653355.95</v>
+        <v>6554630.5</v>
       </c>
       <c r="L119">
-        <v>997651.05</v>
+        <v>1156699.5</v>
       </c>
       <c r="M119">
-        <v>6651007</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>7711330</v>
       </c>
       <c r="O119">
-        <v>997651.0499999998</v>
+        <v>1156699.5</v>
       </c>
       <c r="P119">
         <v>1</v>
@@ -7236,22 +7228,22 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>3355449.301900663</v>
+        <v>3529376.351543444</v>
       </c>
       <c r="K120">
-        <v>2852131.855580163</v>
+        <v>2999969.835562927</v>
       </c>
       <c r="L120">
-        <v>503317.4463204994</v>
+        <v>529406.5159805166</v>
       </c>
       <c r="M120">
-        <v>3355449.301900663</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>3529376.351543444</v>
       </c>
       <c r="O120">
-        <v>503317.4463204997</v>
+        <v>529406.5159805163</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -7294,22 +7286,22 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>22004709.3</v>
+        <v>23784014.3</v>
       </c>
       <c r="K121">
-        <v>18704002.89</v>
+        <v>20216412.14</v>
       </c>
       <c r="L121">
-        <v>3300706.41</v>
+        <v>3567602.16</v>
       </c>
       <c r="M121">
-        <v>22004709.3</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>23784014.3</v>
       </c>
       <c r="O121">
-        <v>3300706.410000001</v>
+        <v>3567602.160000001</v>
       </c>
       <c r="P121">
         <v>2</v>
@@ -7352,22 +7344,22 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>121980541.0002441</v>
+        <v>154647433.8913777</v>
       </c>
       <c r="K122">
-        <v>60990270.48512206</v>
+        <v>77323716.92818888</v>
       </c>
       <c r="L122">
-        <v>60990270.51512206</v>
+        <v>77323716.96318887</v>
       </c>
       <c r="M122">
-        <v>121980541.0002441</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>154647433.8913777</v>
       </c>
       <c r="O122">
-        <v>60990270.51512206</v>
+        <v>77323716.96318887</v>
       </c>
       <c r="P122">
         <v>1</v>
@@ -7398,37 +7390,37 @@
         </is>
       </c>
       <c r="F123">
-        <v>150562232.8700013</v>
+        <v>192896707.7500013</v>
       </c>
       <c r="G123">
-        <v>127977897.8962761</v>
+        <v>163962201.5362761</v>
       </c>
       <c r="H123">
-        <v>22584334.9737252</v>
+        <v>28934506.21372519</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>118049120.0703437</v>
+        <v>142545506.2900616</v>
       </c>
       <c r="K123">
-        <v>100341751.3511421</v>
+        <v>121163679.3930524</v>
       </c>
       <c r="L123">
-        <v>17707368.71920155</v>
+        <v>21381826.89700924</v>
       </c>
       <c r="M123">
-        <v>118049120.0703437</v>
+        <v>-7.683411240577699e-10</v>
       </c>
       <c r="N123">
-        <v>2.025626599788666e-09</v>
+        <v>142545506.2900616</v>
       </c>
       <c r="O123">
-        <v>17707368.71920155</v>
+        <v>21381826.89700924</v>
       </c>
       <c r="P123">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -7468,22 +7460,22 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>125942754.2678016</v>
+        <v>130876823.2662088</v>
       </c>
       <c r="K124">
-        <v>102202544.8190777</v>
+        <v>106206541.7709195</v>
       </c>
       <c r="L124">
-        <v>23740209.44872395</v>
+        <v>24670281.4952892</v>
       </c>
       <c r="M124">
-        <v>125942754.2678016</v>
+        <v>-6.984919367754841e-11</v>
       </c>
       <c r="N124">
-        <v>-9.778887100461772e-11</v>
+        <v>130876823.2662088</v>
       </c>
       <c r="O124">
-        <v>23740209.44872395</v>
+        <v>24670281.4952892</v>
       </c>
       <c r="P124">
         <v>9</v>
@@ -7514,34 +7506,34 @@
         </is>
       </c>
       <c r="F125">
-        <v>159300000</v>
+        <v>149300000</v>
       </c>
       <c r="G125">
-        <v>131139742.5</v>
+        <v>122907492.5</v>
       </c>
       <c r="H125">
-        <v>28160257.5</v>
+        <v>26392507.5</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>91614269.13000001</v>
+        <v>96889452.50999999</v>
       </c>
       <c r="K125">
-        <v>75419156.56</v>
+        <v>79761819.38</v>
       </c>
       <c r="L125">
-        <v>16195112.57</v>
+        <v>17127633.13</v>
       </c>
       <c r="M125">
-        <v>91614269.13000001</v>
+        <v>1.862645149230957e-09</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>96889452.50999999</v>
       </c>
       <c r="O125">
-        <v>16195112.57</v>
+        <v>17127633.13</v>
       </c>
       <c r="P125">
         <v>2</v>
@@ -7572,34 +7564,34 @@
         </is>
       </c>
       <c r="F126">
-        <v>25694229</v>
+        <v>24113129</v>
       </c>
       <c r="G126">
-        <v>21840094.65</v>
+        <v>20496159.65</v>
       </c>
       <c r="H126">
-        <v>3854134.35</v>
+        <v>3616969.35</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>9520879</v>
+        <v>9929254</v>
       </c>
       <c r="K126">
-        <v>8092747.15</v>
+        <v>8439865.9</v>
       </c>
       <c r="L126">
-        <v>1428131.85</v>
+        <v>1489388.1</v>
       </c>
       <c r="M126">
-        <v>9520879</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>9929254</v>
       </c>
       <c r="O126">
-        <v>1428131.85</v>
+        <v>1489388.1</v>
       </c>
       <c r="P126">
         <v>11</v>
@@ -7630,37 +7622,37 @@
         </is>
       </c>
       <c r="F127">
-        <v>130722363.51</v>
+        <v>132037363.51</v>
       </c>
       <c r="G127">
-        <v>111114008.94</v>
+        <v>112231758.94</v>
       </c>
       <c r="H127">
-        <v>19608354.57</v>
+        <v>19805604.57</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>94165837.40000001</v>
+        <v>97450503.64</v>
       </c>
       <c r="K127">
-        <v>80040961.64999999</v>
+        <v>82832927.93999998</v>
       </c>
       <c r="L127">
-        <v>14124875.75</v>
+        <v>14617575.7</v>
       </c>
       <c r="M127">
-        <v>94165837.40000001</v>
+        <v>-2.153683453798294e-09</v>
       </c>
       <c r="N127">
-        <v>-1.688022166490555e-09</v>
+        <v>97450503.64000002</v>
       </c>
       <c r="O127">
-        <v>14124875.75</v>
+        <v>14617575.7</v>
       </c>
       <c r="P127">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
@@ -7700,22 +7692,22 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>10898007.82862386</v>
+        <v>11622187.26624572</v>
       </c>
       <c r="K128">
-        <v>9263306.504136028</v>
+        <v>9878858.990205215</v>
       </c>
       <c r="L128">
-        <v>1634701.324487828</v>
+        <v>1743328.276040509</v>
       </c>
       <c r="M128">
-        <v>10898007.82862386</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>0</v>
+        <v>11622187.26624572</v>
       </c>
       <c r="O128">
-        <v>1634701.324487829</v>
+        <v>1743328.276040508</v>
       </c>
       <c r="P128">
         <v>2</v>
@@ -7758,22 +7750,22 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>14579584.61</v>
+        <v>17423879.49</v>
       </c>
       <c r="K129">
-        <v>12392646.72</v>
+        <v>14810297.34</v>
       </c>
       <c r="L129">
-        <v>2186937.89</v>
+        <v>2613582.15</v>
       </c>
       <c r="M129">
-        <v>14579584.61</v>
+        <v>4.656612873077393e-10</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>17423879.49</v>
       </c>
       <c r="O129">
-        <v>2186937.890000001</v>
+        <v>2613582.150000001</v>
       </c>
       <c r="P129">
         <v>5</v>
@@ -7816,22 +7808,22 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>22205975.18</v>
+        <v>36233761.56</v>
       </c>
       <c r="K130">
-        <v>11102987.58</v>
+        <v>18116880.77</v>
       </c>
       <c r="L130">
-        <v>11102987.6</v>
+        <v>18116880.79</v>
       </c>
       <c r="M130">
-        <v>22205975.18</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>36233761.56</v>
       </c>
       <c r="O130">
-        <v>11102987.6</v>
+        <v>18116880.79</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -7862,34 +7854,34 @@
         </is>
       </c>
       <c r="F131">
-        <v>384039385.51</v>
+        <v>383256318.4</v>
       </c>
       <c r="G131">
-        <v>326433477.68</v>
+        <v>325767870.63</v>
       </c>
       <c r="H131">
-        <v>57605907.83</v>
+        <v>57488447.77</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>166302357.69</v>
+        <v>195143133.58</v>
       </c>
       <c r="K131">
-        <v>141357005.16</v>
+        <v>165871664.35</v>
       </c>
       <c r="L131">
-        <v>24945352.53</v>
+        <v>29271469.23</v>
       </c>
       <c r="M131">
-        <v>166302357.69</v>
+        <v>7.450580596923828e-09</v>
       </c>
       <c r="N131">
-        <v>7.450580596923828e-09</v>
+        <v>195143133.58</v>
       </c>
       <c r="O131">
-        <v>24945352.53</v>
+        <v>29271469.23</v>
       </c>
       <c r="P131">
         <v>8</v>
@@ -7920,34 +7912,34 @@
         </is>
       </c>
       <c r="F132">
-        <v>85195015.9823292</v>
+        <v>84653365.98256734</v>
       </c>
       <c r="G132">
-        <v>69135755.41927513</v>
+        <v>68696206.44146839</v>
       </c>
       <c r="H132">
-        <v>16059260.56305405</v>
+        <v>15957159.54109894</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>60175054.31036828</v>
+        <v>64467866.26550927</v>
       </c>
       <c r="K132">
-        <v>48832056.22520366</v>
+        <v>52315673.09369507</v>
       </c>
       <c r="L132">
-        <v>11342998.08516462</v>
+        <v>12152193.1718142</v>
       </c>
       <c r="M132">
-        <v>60175054.31036828</v>
+        <v>-1.629814497578642e-10</v>
       </c>
       <c r="N132">
-        <v>-6.053596725084076e-10</v>
+        <v>64467866.26550927</v>
       </c>
       <c r="O132">
-        <v>11342998.08516462</v>
+        <v>12152193.1718142</v>
       </c>
       <c r="P132">
         <v>8</v>
@@ -7978,34 +7970,34 @@
         </is>
       </c>
       <c r="F133">
-        <v>116905747.9975705</v>
+        <v>58905748.04345663</v>
       </c>
       <c r="G133">
-        <v>96239734.39</v>
+        <v>48492684.42755268</v>
       </c>
       <c r="H133">
-        <v>20666013.60757053</v>
+        <v>10413063.61590394</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>21474609.72577037</v>
+        <v>22514460.16572581</v>
       </c>
       <c r="K133">
-        <v>17678435.44081096</v>
+        <v>18534466.29877428</v>
       </c>
       <c r="L133">
-        <v>3796174.284959407</v>
+        <v>3979993.86695153</v>
       </c>
       <c r="M133">
-        <v>21474609.72577037</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>22514460.16572581</v>
       </c>
       <c r="O133">
-        <v>3796174.284959406</v>
+        <v>3979993.866951531</v>
       </c>
       <c r="P133">
         <v>2</v>
@@ -8036,34 +8028,34 @@
         </is>
       </c>
       <c r="F134">
-        <v>84552929</v>
+        <v>92210929</v>
       </c>
       <c r="G134">
-        <v>71869989.65000001</v>
+        <v>78379289.65000001</v>
       </c>
       <c r="H134">
-        <v>12682939.35</v>
+        <v>13831639.35</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>42497832.17</v>
+        <v>65759372.38</v>
       </c>
       <c r="K134">
-        <v>36123157.27</v>
+        <v>55895466.44</v>
       </c>
       <c r="L134">
-        <v>6374674.899999999</v>
+        <v>9863905.939999999</v>
       </c>
       <c r="M134">
-        <v>42497832.17</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>65759372.38</v>
       </c>
       <c r="O134">
-        <v>6374674.899999999</v>
+        <v>9863905.940000001</v>
       </c>
       <c r="P134">
         <v>6</v>
@@ -8094,34 +8086,34 @@
         </is>
       </c>
       <c r="F135">
-        <v>22455581992.34307</v>
+        <v>22465949809.34306</v>
       </c>
       <c r="G135">
-        <v>18720428949.81368</v>
+        <v>18731852594.26374</v>
       </c>
       <c r="H135">
-        <v>3691015912.515006</v>
+        <v>3689960085.065004</v>
       </c>
       <c r="I135">
         <v>44137130.01436427</v>
       </c>
       <c r="J135">
-        <v>17110858166.68665</v>
+        <v>18622878369.70084</v>
       </c>
       <c r="K135">
-        <v>14262450483.53094</v>
+        <v>15535326596.96471</v>
       </c>
       <c r="L135">
-        <v>2812553982.194014</v>
+        <v>3050142652.337257</v>
       </c>
       <c r="M135">
-        <v>17075004465.72495</v>
+        <v>37409120.39885917</v>
       </c>
       <c r="N135">
-        <v>35853700.96169765</v>
+        <v>18585469249.30198</v>
       </c>
       <c r="O135">
-        <v>2848407683.155713</v>
+        <v>3087551772.736117</v>
       </c>
       <c r="P135">
         <v>632</v>
@@ -8155,7 +8147,7 @@
         <v>872385691.8</v>
       </c>
       <c r="G136">
-        <v>801640767.7200001</v>
+        <v>801640767.72</v>
       </c>
       <c r="H136">
         <v>70744924.08</v>
@@ -8164,22 +8156,22 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>763444582.7500001</v>
+        <v>767994965.59</v>
       </c>
       <c r="K136">
-        <v>701533885.0400001</v>
+        <v>705715317.92</v>
       </c>
       <c r="L136">
-        <v>61910697.71</v>
+        <v>62279647.67</v>
       </c>
       <c r="M136">
-        <v>763444582.7500001</v>
+        <v>3.166496753692627e-08</v>
       </c>
       <c r="N136">
-        <v>3.166496753692627e-08</v>
+        <v>767994965.59</v>
       </c>
       <c r="O136">
-        <v>61910697.71000005</v>
+        <v>62279647.67000005</v>
       </c>
       <c r="P136">
         <v>8</v>
@@ -8210,37 +8202,37 @@
         </is>
       </c>
       <c r="F137">
-        <v>227044372.5</v>
+        <v>241157512.5</v>
       </c>
       <c r="G137">
-        <v>113522186.25</v>
+        <v>120578756.25</v>
       </c>
       <c r="H137">
-        <v>99521908.64000002</v>
+        <v>105872821.64</v>
       </c>
       <c r="I137">
-        <v>14000277.61</v>
+        <v>14705934.61</v>
       </c>
       <c r="J137">
-        <v>139612837.82</v>
+        <v>162736261.82</v>
       </c>
       <c r="K137">
-        <v>69806418.81999999</v>
+        <v>81368130.81999999</v>
       </c>
       <c r="L137">
-        <v>61685524.41000001</v>
+        <v>71809721.20999999</v>
       </c>
       <c r="M137">
-        <v>131491943.23</v>
+        <v>9558409.790000001</v>
       </c>
       <c r="N137">
-        <v>8120894.590000002</v>
+        <v>153177852.03</v>
       </c>
       <c r="O137">
-        <v>69806419</v>
+        <v>81368131</v>
       </c>
       <c r="P137">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138">
@@ -8268,37 +8260,37 @@
         </is>
       </c>
       <c r="F138">
-        <v>8711127509.579998</v>
+        <v>8980063435.58</v>
       </c>
       <c r="G138">
-        <v>7027829372.660008</v>
+        <v>7245296131.960023</v>
       </c>
       <c r="H138">
-        <v>1524134724.930003</v>
+        <v>1579684181.130008</v>
       </c>
       <c r="I138">
-        <v>159163411.9899999</v>
+        <v>155083122.4899999</v>
       </c>
       <c r="J138">
-        <v>6733575175.949997</v>
+        <v>7765119820.359999</v>
       </c>
       <c r="K138">
-        <v>5441881473.539999</v>
+        <v>6286315555.910006</v>
       </c>
       <c r="L138">
-        <v>1166967050.050002</v>
+        <v>1346902232.779999</v>
       </c>
       <c r="M138">
-        <v>6608848523.589995</v>
+        <v>131902031.6700001</v>
       </c>
       <c r="N138">
-        <v>124726652.3600001</v>
+        <v>7633217788.690004</v>
       </c>
       <c r="O138">
-        <v>1291693702.410001</v>
+        <v>1478804264.450002</v>
       </c>
       <c r="P138">
-        <v>2953</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="139">
@@ -8326,34 +8318,34 @@
         </is>
       </c>
       <c r="F139">
-        <v>16985707820.43</v>
+        <v>16652095250.02999</v>
       </c>
       <c r="G139">
-        <v>14009368757.55499</v>
+        <v>13739956377.82505</v>
       </c>
       <c r="H139">
-        <v>2254579878.344999</v>
+        <v>2215791698.134999</v>
       </c>
       <c r="I139">
-        <v>721759184.5299971</v>
+        <v>696347174.0700015</v>
       </c>
       <c r="J139">
-        <v>10393736348.59999</v>
+        <v>13081695113.1</v>
       </c>
       <c r="K139">
-        <v>8577396643.310003</v>
+        <v>10777549957.38499</v>
       </c>
       <c r="L139">
-        <v>1389382726.6</v>
+        <v>1809775741.964998</v>
       </c>
       <c r="M139">
-        <v>9966779369.90999</v>
+        <v>494369413.7499999</v>
       </c>
       <c r="N139">
-        <v>426956978.6899996</v>
+        <v>12587325699.34999</v>
       </c>
       <c r="O139">
-        <v>1816339705.290001</v>
+        <v>2304145155.714999</v>
       </c>
       <c r="P139">
         <v>2886</v>
@@ -8384,34 +8376,34 @@
         </is>
       </c>
       <c r="F140">
-        <v>2805288533.54</v>
+        <v>2758148698.54</v>
       </c>
       <c r="G140">
-        <v>2311249169.78</v>
+        <v>2272411131.12</v>
       </c>
       <c r="H140">
-        <v>494039363.7600001</v>
+        <v>485737567.42</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140">
-        <v>1826638686.969999</v>
+        <v>2218539774.79</v>
       </c>
       <c r="K140">
-        <v>1504949346.96</v>
+        <v>1827832734.07</v>
       </c>
       <c r="L140">
-        <v>321689340.0099999</v>
+        <v>390707040.72</v>
       </c>
       <c r="M140">
-        <v>1826638686.969999</v>
+        <v>1.862645149230957e-08</v>
       </c>
       <c r="N140">
-        <v>-1.117587089538574e-08</v>
+        <v>2218539774.79</v>
       </c>
       <c r="O140">
-        <v>321689340.0100001</v>
+        <v>390707040.72</v>
       </c>
       <c r="P140">
         <v>14</v>
@@ -8442,34 +8434,34 @@
         </is>
       </c>
       <c r="F141">
-        <v>13538889628.79733</v>
+        <v>13540420249.7373</v>
       </c>
       <c r="G141">
-        <v>11157918473.07182</v>
+        <v>11157983874.54183</v>
       </c>
       <c r="H141">
-        <v>2310746690.143994</v>
+        <v>2312511870.613996</v>
       </c>
       <c r="I141">
-        <v>70224465.58152625</v>
+        <v>69924504.58152623</v>
       </c>
       <c r="J141">
-        <v>10326158686.78363</v>
+        <v>12539899842.05579</v>
       </c>
       <c r="K141">
-        <v>8556362799.297871</v>
+        <v>10366785775.48934</v>
       </c>
       <c r="L141">
-        <v>1711075419.935315</v>
+        <v>2109115777.904328</v>
       </c>
       <c r="M141">
-        <v>10267438219.23318</v>
+        <v>63998288.66215048</v>
       </c>
       <c r="N141">
-        <v>58720467.55045468</v>
+        <v>12475901553.39364</v>
       </c>
       <c r="O141">
-        <v>1769795887.48577</v>
+        <v>2173114066.566479</v>
       </c>
       <c r="P141">
         <v>1012</v>
@@ -8500,34 +8492,34 @@
         </is>
       </c>
       <c r="F142">
-        <v>5250656468.294531</v>
+        <v>5504474413.009858</v>
       </c>
       <c r="G142">
-        <v>4363373820.871236</v>
+        <v>4568261507.738091</v>
       </c>
       <c r="H142">
-        <v>841908903.6533389</v>
+        <v>890839161.5017626</v>
       </c>
       <c r="I142">
         <v>45373743.77</v>
       </c>
       <c r="J142">
-        <v>2939016142.0132</v>
+        <v>4315642701.098089</v>
       </c>
       <c r="K142">
-        <v>2452633460.687529</v>
+        <v>3591488975.241203</v>
       </c>
       <c r="L142">
-        <v>443959730.8957022</v>
+        <v>681730775.4268938</v>
       </c>
       <c r="M142">
-        <v>2896593191.5832</v>
+        <v>42422950.42999998</v>
       </c>
       <c r="N142">
-        <v>42422950.42999998</v>
+        <v>4273219750.668093</v>
       </c>
       <c r="O142">
-        <v>486382681.325702</v>
+        <v>724153725.8568927</v>
       </c>
       <c r="P142">
         <v>7993</v>
@@ -8558,34 +8550,34 @@
         </is>
       </c>
       <c r="F143">
-        <v>741458675.0448179</v>
+        <v>749109133.59714</v>
       </c>
       <c r="G143">
-        <v>610671621.9819577</v>
+        <v>616988977.0629218</v>
       </c>
       <c r="H143">
-        <v>130787053.062858</v>
+        <v>132120156.5342208</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>512094149.8862209</v>
+        <v>610457999.6520772</v>
       </c>
       <c r="K143">
-        <v>420814994.7065574</v>
+        <v>502017271.0720944</v>
       </c>
       <c r="L143">
-        <v>91279155.17966376</v>
+        <v>108440728.5799832</v>
       </c>
       <c r="M143">
-        <v>512094149.8862209</v>
+        <v>-8.801900550960931e-10</v>
       </c>
       <c r="N143">
-        <v>6.544662755900582e-09</v>
+        <v>610457999.6520772</v>
       </c>
       <c r="O143">
-        <v>91279155.17966376</v>
+        <v>108440728.5799832</v>
       </c>
       <c r="P143">
         <v>2335</v>
@@ -8616,34 +8608,34 @@
         </is>
       </c>
       <c r="F144">
-        <v>776961377.01</v>
+        <v>776961377.0099999</v>
       </c>
       <c r="G144">
-        <v>388480688.2600002</v>
+        <v>388480688.2600001</v>
       </c>
       <c r="H144">
-        <v>385577617.2499999</v>
+        <v>385577617.2499998</v>
       </c>
       <c r="I144">
         <v>2903071.5</v>
       </c>
       <c r="J144">
-        <v>622418309.8900005</v>
+        <v>682190853.5800002</v>
       </c>
       <c r="K144">
-        <v>311209153.4600002</v>
+        <v>341095425.1600002</v>
       </c>
       <c r="L144">
-        <v>309195008.1200001</v>
+        <v>338727573.1999998</v>
       </c>
       <c r="M144">
-        <v>620404161.5800006</v>
+        <v>2367855.219999989</v>
       </c>
       <c r="N144">
-        <v>2014148.309999988</v>
+        <v>679822998.3600004</v>
       </c>
       <c r="O144">
-        <v>311209156.43</v>
+        <v>341095428.4199998</v>
       </c>
       <c r="P144">
         <v>177</v>
@@ -8674,34 +8666,34 @@
         </is>
       </c>
       <c r="F145">
-        <v>6683980149.771648</v>
+        <v>6633947178.611645</v>
       </c>
       <c r="G145">
-        <v>5206582511.161001</v>
+        <v>5182294576.030996</v>
       </c>
       <c r="H145">
-        <v>1474134172.440651</v>
+        <v>1448389136.41065</v>
       </c>
       <c r="I145">
-        <v>3263466.169999999</v>
+        <v>3263466.17</v>
       </c>
       <c r="J145">
-        <v>4271921391.471125</v>
+        <v>5205865604.508986</v>
       </c>
       <c r="K145">
-        <v>3393337409.872219</v>
+        <v>4115699406.798872</v>
       </c>
       <c r="L145">
-        <v>876461302.1189085</v>
+        <v>1087394794.010123</v>
       </c>
       <c r="M145">
-        <v>4269798711.991123</v>
+        <v>2771403.699999982</v>
       </c>
       <c r="N145">
-        <v>2122679.480000064</v>
+        <v>5203094200.808986</v>
       </c>
       <c r="O145">
-        <v>878583981.5989087</v>
+        <v>1090166197.710123</v>
       </c>
       <c r="P145">
         <v>749</v>
@@ -8732,34 +8724,34 @@
         </is>
       </c>
       <c r="F146">
-        <v>1991915741.780001</v>
+        <v>1988712405.140001</v>
       </c>
       <c r="G146">
-        <v>1693089963.459991</v>
+        <v>1690367127.32999</v>
       </c>
       <c r="H146">
-        <v>262256616.259999</v>
+        <v>262035062.8799989</v>
       </c>
       <c r="I146">
-        <v>36569162.05999999</v>
+        <v>36310214.93000001</v>
       </c>
       <c r="J146">
-        <v>1281538654.489999</v>
+        <v>1686601557.929998</v>
       </c>
       <c r="K146">
-        <v>1089307840.939999</v>
+        <v>1433611305</v>
       </c>
       <c r="L146">
-        <v>168347998.7099997</v>
+        <v>223476407.5399992</v>
       </c>
       <c r="M146">
-        <v>1257655839.649999</v>
+        <v>29513845.39000002</v>
       </c>
       <c r="N146">
-        <v>23882814.84000001</v>
+        <v>1657087712.539999</v>
       </c>
       <c r="O146">
-        <v>192230813.5499994</v>
+        <v>252990252.929999</v>
       </c>
       <c r="P146">
         <v>1293</v>
@@ -8790,37 +8782,37 @@
         </is>
       </c>
       <c r="F147">
-        <v>1316258806.52</v>
+        <v>1333663231.65</v>
       </c>
       <c r="G147">
-        <v>658129403.0000002</v>
+        <v>666831615.5500002</v>
       </c>
       <c r="H147">
-        <v>652660065.9899999</v>
+        <v>661362278.5700001</v>
       </c>
       <c r="I147">
         <v>5469337.53</v>
       </c>
       <c r="J147">
-        <v>648606635.7800001</v>
+        <v>951364631.6499996</v>
       </c>
       <c r="K147">
-        <v>324303316.8699999</v>
+        <v>475682314.4899999</v>
       </c>
       <c r="L147">
-        <v>321306717.7099999</v>
+        <v>471538641.2700002</v>
       </c>
       <c r="M147">
-        <v>645610034.58</v>
+        <v>4143675.890000002</v>
       </c>
       <c r="N147">
-        <v>2996601.2</v>
+        <v>947220955.7599996</v>
       </c>
       <c r="O147">
-        <v>324303318.91</v>
+        <v>475682317.1600001</v>
       </c>
       <c r="P147">
-        <v>804</v>
+        <v>812</v>
       </c>
     </row>
     <row r="148">
@@ -8848,37 +8840,37 @@
         </is>
       </c>
       <c r="F148">
-        <v>25187617869.65068</v>
+        <v>25641629622.83617</v>
       </c>
       <c r="G148">
-        <v>20600086106.95186</v>
+        <v>20975860748.88566</v>
       </c>
       <c r="H148">
-        <v>4487302678.158834</v>
+        <v>4565539789.410714</v>
       </c>
       <c r="I148">
         <v>100229084.54</v>
       </c>
       <c r="J148">
-        <v>17992299193.65712</v>
+        <v>21846150022.46989</v>
       </c>
       <c r="K148">
-        <v>14771942181.67591</v>
+        <v>17943342983.33677</v>
       </c>
       <c r="L148">
-        <v>3127929309.881299</v>
+        <v>3804682946.643133</v>
       </c>
       <c r="M148">
-        <v>17899871491.55714</v>
+        <v>98124092.49000004</v>
       </c>
       <c r="N148">
-        <v>92427702.09999998</v>
+        <v>21748025929.97989</v>
       </c>
       <c r="O148">
-        <v>3220357011.981299</v>
+        <v>3902807039.133131</v>
       </c>
       <c r="P148">
-        <v>18378</v>
+        <v>18540</v>
       </c>
     </row>
     <row r="149">
@@ -8906,34 +8898,34 @@
         </is>
       </c>
       <c r="F149">
-        <v>10657351440.06001</v>
+        <v>10650763922.99</v>
       </c>
       <c r="G149">
-        <v>8680333634.189997</v>
+        <v>8674309615.65</v>
       </c>
       <c r="H149">
-        <v>1689777010.810002</v>
+        <v>1689546273.830001</v>
       </c>
       <c r="I149">
-        <v>287240795.0599999</v>
+        <v>286908033.5100001</v>
       </c>
       <c r="J149">
-        <v>7167968258.880002</v>
+        <v>9105299058.760002</v>
       </c>
       <c r="K149">
-        <v>5850854750.879996</v>
+        <v>7423688681.179998</v>
       </c>
       <c r="L149">
-        <v>1075572521.680001</v>
+        <v>1419562975.999999</v>
       </c>
       <c r="M149">
-        <v>6926427272.559998</v>
+        <v>262047401.5800001</v>
       </c>
       <c r="N149">
-        <v>241540986.32</v>
+        <v>8843251657.179993</v>
       </c>
       <c r="O149">
-        <v>1317113508.000001</v>
+        <v>1681610377.579999</v>
       </c>
       <c r="P149">
         <v>420</v>
@@ -8964,34 +8956,34 @@
         </is>
       </c>
       <c r="F150">
-        <v>5148724852.917981</v>
+        <v>5123467083.787978</v>
       </c>
       <c r="G150">
-        <v>4231941000.973503</v>
+        <v>4211178365.163499</v>
       </c>
       <c r="H150">
-        <v>886683813.000373</v>
+        <v>882188679.6803718</v>
       </c>
       <c r="I150">
-        <v>30100038.94410949</v>
+        <v>30100038.9441095</v>
       </c>
       <c r="J150">
-        <v>3114305011.01359</v>
+        <v>3817190544.334378</v>
       </c>
       <c r="K150">
-        <v>2556942857.713974</v>
+        <v>3137726505.807099</v>
       </c>
       <c r="L150">
-        <v>532234164.0217682</v>
+        <v>652632178.658296</v>
       </c>
       <c r="M150">
-        <v>3089177021.735743</v>
+        <v>26831859.86899109</v>
       </c>
       <c r="N150">
-        <v>25127989.2778479</v>
+        <v>3790358684.465387</v>
       </c>
       <c r="O150">
-        <v>557362153.299616</v>
+        <v>679464038.5272869</v>
       </c>
       <c r="P150">
         <v>621</v>
@@ -9204,7 +9196,7 @@
         <v>1560265225</v>
       </c>
       <c r="K157">
-        <v>998606513.6</v>
+        <v>998606513.6000001</v>
       </c>
       <c r="O157">
         <v>561658711.4</v>
@@ -9433,13 +9425,13 @@
         </is>
       </c>
       <c r="J165">
-        <v>925694805.03</v>
+        <v>925694805.0299999</v>
       </c>
       <c r="K165">
-        <v>458218221.52</v>
+        <v>458218221.5200001</v>
       </c>
       <c r="O165">
-        <v>467476583.51</v>
+        <v>467476583.5100001</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -9901,13 +9893,13 @@
         </is>
       </c>
       <c r="J177">
-        <v>12896222457.44</v>
+        <v>12896222457.43991</v>
       </c>
       <c r="K177">
-        <v>9672808263.870001</v>
+        <v>9672808263.870176</v>
       </c>
       <c r="O177">
-        <v>3223414193.57</v>
+        <v>3223414193.569979</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -9940,10 +9932,10 @@
         </is>
       </c>
       <c r="J178">
-        <v>143396206.46</v>
+        <v>143396206.4600001</v>
       </c>
       <c r="K178">
-        <v>107555281.89</v>
+        <v>107555281.8899998</v>
       </c>
       <c r="O178">
         <v>35840924.57</v>
@@ -9969,13 +9961,13 @@
         </is>
       </c>
       <c r="J179">
-        <v>8680053794.65</v>
+        <v>8680053794.649925</v>
       </c>
       <c r="K179">
-        <v>6510540691.67</v>
+        <v>6510540691.670097</v>
       </c>
       <c r="O179">
-        <v>2169513102.98</v>
+        <v>2169513102.979989</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -9998,13 +9990,13 @@
         </is>
       </c>
       <c r="J180">
-        <v>5466893578.45</v>
+        <v>5466893578.450015</v>
       </c>
       <c r="K180">
-        <v>4100404216.54</v>
+        <v>4100404216.540011</v>
       </c>
       <c r="O180">
-        <v>1366489361.91</v>
+        <v>1366489361.910001</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -10037,13 +10029,13 @@
         </is>
       </c>
       <c r="J181">
-        <v>107650775.54</v>
+        <v>107650775.5400003</v>
       </c>
       <c r="K181">
-        <v>80738535.95999999</v>
+        <v>80738535.96000105</v>
       </c>
       <c r="O181">
-        <v>26912239.58</v>
+        <v>26912239.58000001</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -10082,7 +10074,7 @@
         <v>10170985.28</v>
       </c>
       <c r="O182">
-        <v>3390334.91</v>
+        <v>3390334.910000002</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -10221,13 +10213,13 @@
         </is>
       </c>
       <c r="J187">
-        <v>33974260.9</v>
+        <v>33974260.90000002</v>
       </c>
       <c r="K187">
         <v>25480620.42</v>
       </c>
       <c r="O187">
-        <v>8493640.48</v>
+        <v>8493640.479999995</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -10299,13 +10291,13 @@
         </is>
       </c>
       <c r="J189">
-        <v>4751134404.82</v>
+        <v>4751134404.820004</v>
       </c>
       <c r="K189">
-        <v>3563563261.26</v>
+        <v>3563563261.259962</v>
       </c>
       <c r="O189">
-        <v>1187571143.56</v>
+        <v>1187571143.559998</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -10338,13 +10330,13 @@
         </is>
       </c>
       <c r="J190">
-        <v>50316366.39</v>
+        <v>50316366.38999997</v>
       </c>
       <c r="K190">
-        <v>37738356.82</v>
+        <v>37738356.82000005</v>
       </c>
       <c r="O190">
-        <v>12578009.57</v>
+        <v>12578009.56999999</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -10380,10 +10372,10 @@
         <v>130612367.79</v>
       </c>
       <c r="K191">
-        <v>97959317.86</v>
+        <v>97959317.85999998</v>
       </c>
       <c r="O191">
-        <v>32653049.93</v>
+        <v>32653049.92999999</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -10406,13 +10398,13 @@
         </is>
       </c>
       <c r="J192">
-        <v>14197879.57</v>
+        <v>14197879.57000001</v>
       </c>
       <c r="K192">
-        <v>10648941.65</v>
+        <v>10648941.64999999</v>
       </c>
       <c r="O192">
-        <v>3548937.92</v>
+        <v>3548937.919999998</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -10438,10 +10430,10 @@
         <v>360348391.45</v>
       </c>
       <c r="K193">
-        <v>178367237.6</v>
+        <v>178367237.5999995</v>
       </c>
       <c r="O193">
-        <v>181981153.85</v>
+        <v>181981153.8500005</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -10464,13 +10456,13 @@
         </is>
       </c>
       <c r="J194">
-        <v>3151410605.91</v>
+        <v>3151410605.909998</v>
       </c>
       <c r="K194">
         <v>1560227897.37</v>
       </c>
       <c r="O194">
-        <v>1591182708.54</v>
+        <v>1591182708.539999</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -10496,10 +10488,10 @@
         <v>11785416.06</v>
       </c>
       <c r="K195">
-        <v>8839234.58</v>
+        <v>8839234.579999998</v>
       </c>
       <c r="O195">
-        <v>2946181.48</v>
+        <v>2946181.479999999</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -10535,10 +10527,10 @@
         <v>6447153.27</v>
       </c>
       <c r="K196">
-        <v>4835383.36</v>
+        <v>4835383.360000004</v>
       </c>
       <c r="O196">
-        <v>1611769.91</v>
+        <v>1611769.909999999</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
